--- a/doc/04.Schedule/开发计划.xlsx
+++ b/doc/04.Schedule/开发计划.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\doc\04.Schedule\计划及总结\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Source\ncCTM\doc\04.Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="284">
   <si>
     <t>编号</t>
   </si>
@@ -1192,6 +1192,10 @@
 4、了解EntityFramework6
 5、初步掌握Winform开发的基础知识</t>
     <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导入时，核对成交金额和发生金额</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1803,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT140"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4764,7 +4768,9 @@
       <c r="D80" s="21"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
-      <c r="G80" s="7"/>
+      <c r="G80" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="H80" s="6"/>
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
@@ -5638,8 +5644,8 @@
   </sheetPr>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/04.Schedule/开发计划.xlsx
+++ b/doc/04.Schedule/开发计划.xlsx
@@ -17,9 +17,8 @@
     <sheet name="备份" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">备份!$A$1:$L$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">开发计划!$A$1:$L$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">前期准备计划!$A$1:$L$12</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
@@ -138,64 +137,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>销量、产能、质量、成本、库存、管理基础</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>王斌坚:在必须</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="300">
   <si>
     <t>编号</t>
   </si>
@@ -603,84 +546,84 @@
   </si>
   <si>
     <t>基础管理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>开发完成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>股票信息管理功能优化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>股票代码可选，市场和股票名称自动带出</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
     <t>数据维护</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>虚拟交易记录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>增加交易时间填写</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>日志管理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>系统登陆日志</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>记录登陆用户信息/时间/IP/MAC等</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>53</t>
   </si>
   <si>
     <t>数据导入</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>财务交割单导入</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修改安信证券导入模板及处理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>财务交割单/每日交易数据核对</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>增加核对明细关联的交易记录画面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
     <t>报表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>个人-投资收益汇总查询</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修改报表格式/默认剔除期末持仓为0的数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
@@ -693,15 +636,15 @@
   </si>
   <si>
     <t>数据核对</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>个人交易数据维护画面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>权限调整，交易员可查询操作账户的所有交易记录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>55</t>
@@ -717,128 +660,104 @@
   </si>
   <si>
     <t>数据核对的交易明细对照画面修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>增加每日交易记录的导入人和受益人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>数据核对</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>数据维护</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>交易员每日交易数据编辑画面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>增加账户信息可编辑。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基础管理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>决策股票池</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>增加修改变更记录</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>申请单实际交易数据关联，准确度投票及分类显示;申请理由分类列表可选；</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>根据需求变更修改投资决策流程和准确顶设定流程处理，并完成决策操作与实际交易记录关联处理。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>投资决策流程功能上线/已有数据迁移</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>处理细节完善/bug修改/已有决策数据迁移到数据库新表</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>交易员委托数据维护</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>基础数据</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>账户信息增加账户负责人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>数据库表字段增加/管理画面处理修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>投资决策</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>股票投资决策流程试用问题修改完善</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>及时解决试用过程中出现的问题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>月结</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易员相关数据和财务核算相关数据月结</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户/股票/交易员的资金/持仓/收益相关数据月结</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易员和财务相关资金/持仓/收益相关报表修改优化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>各报表格式和数据核算（基于月结数据）修改调整</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>数据月结</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>月结功能需求整理分析及数据库表设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1、月结需求的进一步梳理分析
 2、明确需求后进行相关数据库表设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>投资交易管理系统</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>投资交易管理系统开发计划</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>59</t>
@@ -900,148 +819,148 @@
   <si>
     <t>计划完成
 时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>实际完成
 时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>投资决策流程权限控制Bug修改和决策操作便捷改善</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>决策操作记录的决策投票画面增加管理员一票决定权处理。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>申请单的第一步操作记录执行后，第二步对应操作记录的决策投票时，管理员可选择一票确定处理。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>账户仓位配置规划表开发及对应问题修改。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1、对投资主体下属账号的个股票的盈亏持仓进行统计，并合计至各对应主体。
 2、修改投资主体持仓市值和净收益合计不正确的问题。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1、增加交易日期/交易时间/所属账户字段可修改
 2、交易数据查询页面默认显示数据修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>账户仓位配置规划表修改完善。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>投资决策申请管理画面完善</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>投资决策申请单列表中显示对应操作状态（决策投资和准确度评定）。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>决策操作记录的交易记录关联画面完善</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>决策操作记录的交易记录关联画面增加选择记录的合计交易数据（数量/金额等）。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>交易员委托数据和财务交割单数据导入修改优化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>取消账户信息默认选中/买卖操作判断修改/导入默认路径保存</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>交易员委托数据维护</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1、增加交易日期/所属账户字段可修改
 2、交易数据查询页面默认显示数据修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>账户仓位配置规划表修改完善。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>主体收益核算包含国债逆回购，持仓和股票明细中不包含国债逆回购。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>决策股票池变更日志</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>增加变更日志画面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>报表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修改完成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>个人交易模块的收益报表修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>所有报表中的累计收益、收益率核算修改为本年度的收益和收益率</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>数据导入</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>个人交易数据和财务交割单导入数据模板增加及修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>增加海通证券普通账户数据导入模板，修改国泰信用/招商普通/华泰信用/华泰普通/方正普通数据导入模板</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>王海</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>投资决策</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>修改原有持仓股票分析决策为持仓个股投资计划</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1、根据画面说明文档重新设计数据库表
 2、界面修改及后台处理开发</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>个人交易数据和财务交割单导入画面修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>导入完成画面增加 总记录数/导入记录数/忽略记录数</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>个人交易</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>75</t>
@@ -1050,115 +969,103 @@
     <t>1、账户配置规划表样式颜色字体设置。
 2、增加投资主体的资金信息表，并在账户管理画面增加投资主题的资金信息录入修改处理
 3、修改账户仓位配置规划表的后台处理，主体资金统计部分改为使用新增的主体资金信息表中的数据。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>个人交易交割单导入数据模板修改，导入完成画面忽略数据导出功能修改</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1、修改国泰普通交割单数据导入模板
 2、增加红股入帐和新股入帐交割单数据的买卖判断
 3、修改忽略数据导出excel文件的文件格式为xlsx</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>81</t>
   </si>
   <si>
     <t>编制完成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>隔日短差/波段/目标 每日股票交易标识曲线图
 新需求文档</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1、隔日持仓：未平仓数量
 2、当日收益：实际收益和浮动收益 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>三方账号盈亏统计需要重新开发(与现有的数据分开来)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方账号清算流程（个人业绩清算/账号调动等）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人收益报表利息计算变更（累计收益新年重记）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VS2015/DevExpress15.2/SQL Server2014
 Git/TortoiseGit安装配置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>开发准备</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>配置完成</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>SQL Server2014</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>1、掌握SQL Server Management Studio的常用功能
 2、掌握SQL Server语法和常用系统函数
 3、掌握简单存储过程、函数、视图的使用和创建</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>1、了解IOC框架的基本概念
 2、了解Autofac的基本用法
 3、结合本项目代码了解Autofac的实际应用方法</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>三方账户清算（不计利息）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>了解掌握</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>本项目系统框架及开发流程</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>项目开发环境</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>C#语言</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>IOC框架（Autofac）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>DevExpress</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>重点了解熟悉以下控件的常用属性和方法：
@@ -1169,21 +1076,21 @@
 5、LookUpEdit控件
 6、GridControl/GridView控件
 7、LayoutControl控件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>1、理解系统的开发框架
 2、熟悉日常开发流程事项
 3、程序目录结构/命名规则</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>VS2015中Git的使用</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>掌握Git的常用功能：克隆/提交/提取/拉取/推送</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>1、掌握基本语法
@@ -1191,18 +1098,119 @@
 3、掌握Linq的基本用法
 4、了解EntityFramework6
 5、初步掌握Winform开发的基础知识</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>数据导入时，核对成交金额和发生金额</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户持仓核对功能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户的个股财务持仓/交割单持仓/当日委托持仓核对报表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户收益核对功能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、账户财务总收益/交割单总收益/当日委托总收益核对报表
+2、账户的个股财务收益/交割单收益/当日委托收益核对报表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整单功能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交割单账户月结</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、账户资金月结（资金和收益信息）
+2、账户持仓月结（个股持仓、成本价）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日委托月结</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、交易员总收益月结
+2、交易员/交易账号/个股收益和持仓明细月结</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人交易报表修改</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于月结数据修改现有个人交易各报表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务核算报表修改</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于月结数据修改现有财务核算各报表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人收益报表利息计算变更（累计收益新年重计）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方账号清算流程（个人业绩清算/账号调动等，不计利息）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>1、调整单类别
+2、交割单收益与财务收益差额调整单的处理对象（交割单和当日委托数据调整，明确到交易账户）
+3、当日委托收益与交割单收益差额调整单的目标数据对象（当日委托数据调整，明确到交易员和交易账号）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1249,13 +1257,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1443,9 +1444,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1461,41 +1459,44 @@
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1804,11 +1805,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1829,7 +1830,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -1868,11 +1869,11 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>217</v>
+      <c r="I2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -1892,7 +1893,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -1906,10 +1907,10 @@
       <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="24">
         <v>42583</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="24">
         <v>42583</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -1942,10 +1943,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>42593</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <v>42593</v>
       </c>
       <c r="K4" s="9" t="s">
@@ -1980,10 +1981,10 @@
       <c r="H5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>42597</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="24">
         <v>42597</v>
       </c>
       <c r="K5" s="9" t="s">
@@ -2018,10 +2019,10 @@
       <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>42598</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="24">
         <v>42598</v>
       </c>
       <c r="K6" s="9" t="s">
@@ -2054,10 +2055,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>42608</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="24">
         <v>42608</v>
       </c>
       <c r="K7" s="9" t="s">
@@ -2090,10 +2091,10 @@
         <v>32</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>42608</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="24">
         <v>42608</v>
       </c>
       <c r="K8" s="9" t="s">
@@ -2128,10 +2129,10 @@
       <c r="H9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <v>42611</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="24">
         <v>42611</v>
       </c>
       <c r="K9" s="9" t="s">
@@ -2164,10 +2165,10 @@
         <v>38</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <v>42612</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="24">
         <v>42612</v>
       </c>
       <c r="K10" s="9" t="s">
@@ -2200,10 +2201,10 @@
         <v>43</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <v>42613</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="24">
         <v>42613</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -2236,10 +2237,10 @@
         <v>46</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <v>42625</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="24">
         <v>42625</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -2272,10 +2273,10 @@
         <v>48</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <v>42627</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="24">
         <v>42627</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -2308,10 +2309,10 @@
         <v>51</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="25">
+      <c r="I14" s="24">
         <v>42634</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="24">
         <v>42634</v>
       </c>
       <c r="K14" s="9" t="s">
@@ -2344,10 +2345,10 @@
         <v>53</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <v>42640</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="24">
         <v>42640</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -2376,14 +2377,14 @@
       <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="34" t="s">
         <v>55</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="25">
+      <c r="I16" s="24">
         <v>42643</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="24">
         <v>42643</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -2418,10 +2419,10 @@
       <c r="H17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="31">
         <v>42653</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="24">
         <v>42652</v>
       </c>
       <c r="K17" s="9" t="s">
@@ -2454,10 +2455,10 @@
         <v>60</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="25">
+      <c r="I18" s="24">
         <v>42655</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="24">
         <v>42654</v>
       </c>
       <c r="K18" s="9" t="s">
@@ -2486,16 +2487,16 @@
       <c r="F19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="34" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="24">
         <v>42661</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="24">
         <v>42661</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -2530,10 +2531,10 @@
       <c r="H20" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="24">
         <v>42664</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="24">
         <v>42664</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -2568,10 +2569,10 @@
       <c r="H21" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="24">
         <v>42668</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="24">
         <v>42668</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -2606,10 +2607,10 @@
       <c r="H22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="24">
         <v>42670</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="24">
         <v>42670</v>
       </c>
       <c r="K22" s="9" t="s">
@@ -2642,10 +2643,10 @@
         <v>112</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="25">
+      <c r="I23" s="24">
         <v>42671</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="24">
         <v>42671</v>
       </c>
       <c r="K23" s="9" t="s">
@@ -2678,10 +2679,10 @@
         <v>114</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="25">
+      <c r="I24" s="24">
         <v>42674</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="24">
         <v>42674</v>
       </c>
       <c r="K24" s="9" t="s">
@@ -2716,10 +2717,10 @@
       <c r="H25" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="24">
         <v>42677</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="24">
         <v>42677</v>
       </c>
       <c r="K25" s="9" t="s">
@@ -2752,10 +2753,10 @@
         <v>121</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="25">
+      <c r="I26" s="24">
         <v>42684</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="24">
         <v>42684</v>
       </c>
       <c r="K26" s="9" t="s">
@@ -2788,10 +2789,10 @@
         <v>125</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="25">
+      <c r="I27" s="24">
         <v>42685</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="24">
         <v>42675</v>
       </c>
       <c r="K27" s="9" t="s">
@@ -2826,10 +2827,10 @@
       <c r="H28" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="24">
         <v>42685</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="24">
         <v>42685</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -2852,22 +2853,22 @@
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="25" t="s">
         <v>147</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="24">
         <v>42688</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="24">
         <v>42688</v>
       </c>
       <c r="K29" s="9" t="s">
@@ -2890,22 +2891,22 @@
       <c r="D30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="25" t="s">
         <v>159</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="24">
         <v>42688</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="24">
         <v>42688</v>
       </c>
       <c r="K30" s="9" t="s">
@@ -2928,22 +2929,22 @@
       <c r="D31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="25" t="s">
         <v>140</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="24">
         <v>42688</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31" s="24">
         <v>42688</v>
       </c>
       <c r="K31" s="9" t="s">
@@ -2978,10 +2979,10 @@
       <c r="H32" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I32" s="24">
         <v>42689</v>
       </c>
-      <c r="J32" s="25">
+      <c r="J32" s="24">
         <v>42689</v>
       </c>
       <c r="K32" s="9" t="s">
@@ -3004,22 +3005,22 @@
       <c r="D33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="25" t="s">
         <v>153</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="H33" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="I33" s="25">
+      <c r="I33" s="24">
         <v>42689</v>
       </c>
-      <c r="J33" s="25">
+      <c r="J33" s="24">
         <v>42689</v>
       </c>
       <c r="K33" s="9" t="s">
@@ -3054,10 +3055,10 @@
       <c r="H34" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="24">
         <v>42689</v>
       </c>
-      <c r="J34" s="25">
+      <c r="J34" s="24">
         <v>42689</v>
       </c>
       <c r="K34" s="9" t="s">
@@ -3067,41 +3068,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:46" s="33" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="26" t="s">
+      <c r="B35" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F35" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="27" t="s">
+      <c r="F35" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="32">
         <v>42720</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="32">
         <v>42720</v>
       </c>
-      <c r="K35" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="31" t="s">
+      <c r="K35" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3118,22 +3119,22 @@
       <c r="D36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="26" t="s">
+      <c r="E36" s="25" t="s">
         <v>172</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="24">
         <v>42711</v>
       </c>
-      <c r="J36" s="25">
+      <c r="J36" s="24">
         <v>42711</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -3156,7 +3157,7 @@
       <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="E37" s="25" t="s">
         <v>168</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -3165,13 +3166,13 @@
       <c r="G37" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="I37" s="25">
+      <c r="I37" s="24">
         <v>42712</v>
       </c>
-      <c r="J37" s="25">
+      <c r="J37" s="24">
         <v>42712</v>
       </c>
       <c r="K37" s="9" t="s">
@@ -3194,22 +3195,22 @@
       <c r="D38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="25" t="s">
         <v>169</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="24">
         <v>42713</v>
       </c>
-      <c r="J38" s="25">
+      <c r="J38" s="24">
         <v>42713</v>
       </c>
       <c r="K38" s="9" t="s">
@@ -3219,79 +3220,79 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:46" s="33" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="26" t="s">
+      <c r="B39" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="27" t="s">
+      <c r="F39" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="32">
         <v>42727</v>
       </c>
-      <c r="J39" s="35">
+      <c r="J39" s="32">
         <v>42727</v>
       </c>
-      <c r="K39" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="31" t="s">
+      <c r="K39" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:46" s="33" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="26" t="s">
+      <c r="B40" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="27" t="s">
+      <c r="F40" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H40" s="28" t="s">
+      <c r="H40" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="32">
         <v>42731</v>
       </c>
-      <c r="J40" s="35">
+      <c r="J40" s="32">
         <v>42731</v>
       </c>
-      <c r="K40" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="31" t="s">
+      <c r="K40" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3315,13 +3316,13 @@
         <v>15</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="25">
+      <c r="I41" s="24">
         <v>42738</v>
       </c>
-      <c r="J41" s="25">
+      <c r="J41" s="24">
         <v>42738</v>
       </c>
       <c r="K41" s="9" t="s">
@@ -3351,15 +3352,15 @@
         <v>15</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I42" s="25">
+        <v>214</v>
+      </c>
+      <c r="I42" s="24">
         <v>42739</v>
       </c>
-      <c r="J42" s="25">
+      <c r="J42" s="24">
         <v>42739</v>
       </c>
       <c r="K42" s="9" t="s">
@@ -3419,15 +3420,15 @@
         <v>15</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I43" s="25">
+        <v>216</v>
+      </c>
+      <c r="I43" s="24">
         <v>42740</v>
       </c>
-      <c r="J43" s="25">
+      <c r="J43" s="24">
         <v>42740</v>
       </c>
       <c r="K43" s="9" t="s">
@@ -3490,12 +3491,12 @@
         <v>179</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I44" s="25">
+        <v>217</v>
+      </c>
+      <c r="I44" s="24">
         <v>42741</v>
       </c>
-      <c r="J44" s="25">
+      <c r="J44" s="24">
         <v>42741</v>
       </c>
       <c r="K44" s="9" t="s">
@@ -3555,15 +3556,15 @@
         <v>15</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="I45" s="25">
+        <v>246</v>
+      </c>
+      <c r="I45" s="24">
         <v>42741</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="24">
         <v>42741</v>
       </c>
       <c r="K45" s="9" t="s">
@@ -3628,10 +3629,10 @@
       <c r="H46" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I46" s="25">
+      <c r="I46" s="24">
         <v>42744</v>
       </c>
-      <c r="J46" s="25">
+      <c r="J46" s="24">
         <v>42744</v>
       </c>
       <c r="K46" s="9" t="s">
@@ -3661,15 +3662,15 @@
         <v>15</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I47" s="25">
+        <v>220</v>
+      </c>
+      <c r="I47" s="24">
         <v>42745</v>
       </c>
-      <c r="J47" s="25">
+      <c r="J47" s="24">
         <v>42744</v>
       </c>
       <c r="K47" s="9" t="s">
@@ -3699,15 +3700,15 @@
         <v>15</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I48" s="25">
+        <v>222</v>
+      </c>
+      <c r="I48" s="24">
         <v>42746</v>
       </c>
-      <c r="J48" s="25">
+      <c r="J48" s="24">
         <v>42745</v>
       </c>
       <c r="K48" s="9" t="s">
@@ -3717,7 +3718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>122</v>
       </c>
@@ -3737,15 +3738,15 @@
         <v>15</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I49" s="25">
+        <v>224</v>
+      </c>
+      <c r="I49" s="24">
         <v>42747</v>
       </c>
-      <c r="J49" s="25">
+      <c r="J49" s="24">
         <v>42747</v>
       </c>
       <c r="K49" s="9" t="s">
@@ -3755,7 +3756,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>126</v>
       </c>
@@ -3775,15 +3776,15 @@
         <v>15</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I50" s="25">
+        <v>226</v>
+      </c>
+      <c r="I50" s="24">
         <v>42748</v>
       </c>
-      <c r="J50" s="25">
+      <c r="J50" s="24">
         <v>42748</v>
       </c>
       <c r="K50" s="9" t="s">
@@ -3793,7 +3794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>129</v>
       </c>
@@ -3813,15 +3814,15 @@
         <v>15</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I51" s="25">
+        <v>228</v>
+      </c>
+      <c r="I51" s="24">
         <v>42751</v>
       </c>
-      <c r="J51" s="25">
+      <c r="J51" s="24">
         <v>42751</v>
       </c>
       <c r="K51" s="9" t="s">
@@ -3833,7 +3834,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="1:14" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>131</v>
       </c>
@@ -3853,15 +3854,15 @@
         <v>15</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="I52" s="25">
+        <v>230</v>
+      </c>
+      <c r="I52" s="24">
         <v>42752</v>
       </c>
-      <c r="J52" s="25">
+      <c r="J52" s="24">
         <v>42752</v>
       </c>
       <c r="K52" s="9" t="s">
@@ -3873,7 +3874,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="1:14" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>134</v>
       </c>
@@ -3898,10 +3899,10 @@
       <c r="H53" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I53" s="25">
+      <c r="I53" s="24">
         <v>42755</v>
       </c>
-      <c r="J53" s="25">
+      <c r="J53" s="24">
         <v>42755</v>
       </c>
       <c r="K53" s="9" t="s">
@@ -3913,7 +3914,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="1:14" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>139</v>
       </c>
@@ -3927,21 +3928,21 @@
         <v>13</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I54" s="25">
+        <v>234</v>
+      </c>
+      <c r="I54" s="24">
         <v>42755</v>
       </c>
-      <c r="J54" s="25">
+      <c r="J54" s="24">
         <v>42755</v>
       </c>
       <c r="K54" s="9" t="s">
@@ -3953,7 +3954,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="1:14" s="11" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>146</v>
       </c>
@@ -3967,33 +3968,33 @@
         <v>13</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I55" s="25">
+        <v>237</v>
+      </c>
+      <c r="I55" s="24">
         <v>42773</v>
       </c>
-      <c r="J55" s="25">
+      <c r="J55" s="24">
         <v>42773</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="1:14" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>152</v>
       </c>
@@ -4007,21 +4008,21 @@
         <v>13</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="I56" s="25">
+        <v>241</v>
+      </c>
+      <c r="I56" s="24">
         <v>42775</v>
       </c>
-      <c r="J56" s="25">
+      <c r="J56" s="24">
         <v>42775</v>
       </c>
       <c r="K56" s="9" t="s">
@@ -4033,7 +4034,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="1:14" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>162</v>
       </c>
@@ -4047,33 +4048,33 @@
         <v>13</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="I57" s="25">
+        <v>243</v>
+      </c>
+      <c r="I57" s="24">
         <v>42775</v>
       </c>
-      <c r="J57" s="25">
+      <c r="J57" s="24">
         <v>42775</v>
       </c>
       <c r="K57" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="1:14" s="11" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:46" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>163</v>
       </c>
@@ -4087,21 +4088,21 @@
         <v>13</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I58" s="8">
+      <c r="G58" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="H58" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="I58" s="37">
         <v>42780</v>
       </c>
-      <c r="J58" s="8"/>
+      <c r="J58" s="37"/>
       <c r="K58" s="9" t="s">
         <v>18</v>
       </c>
@@ -4111,7 +4112,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="1:14" s="11" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:46" s="11" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>164</v>
       </c>
@@ -4131,177 +4132,239 @@
         <v>15</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I59" s="25">
+        <v>248</v>
+      </c>
+      <c r="I59" s="24">
         <v>42781</v>
       </c>
-      <c r="J59" s="25">
+      <c r="J59" s="24">
         <v>42781</v>
       </c>
       <c r="K59" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M59" s="16"/>
       <c r="N59" s="16"/>
     </row>
-    <row r="60" spans="1:14" s="33" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="26" t="s">
+      <c r="B60" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="H60" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="I60" s="32">
+        <v>42783</v>
+      </c>
+      <c r="J60" s="32">
+        <v>42788</v>
+      </c>
+      <c r="K60" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+    </row>
+    <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I61" s="24">
+        <v>42795</v>
+      </c>
+      <c r="J61" s="24">
+        <v>42795</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F60" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="27" t="s">
+      <c r="B62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="I62" s="24">
+        <v>42800</v>
+      </c>
+      <c r="J62" s="24"/>
+      <c r="K62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N62" s="14"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="14"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="16"/>
+      <c r="AN62" s="16"/>
+      <c r="AO62" s="16"/>
+      <c r="AP62" s="16"/>
+      <c r="AQ62" s="16"/>
+      <c r="AR62" s="12"/>
+      <c r="AS62" s="16"/>
+      <c r="AT62" s="16"/>
+    </row>
+    <row r="63" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H60" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="I60" s="29">
-        <v>42783</v>
-      </c>
-      <c r="J60" s="29"/>
-      <c r="K60" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="M60" s="32"/>
-      <c r="N60" s="32"/>
-    </row>
-    <row r="61" spans="1:14" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="I61" s="29">
+      <c r="B63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I63" s="8">
         <v>42804</v>
       </c>
-      <c r="J61" s="30"/>
-      <c r="K61" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-    </row>
-    <row r="62" spans="1:14" s="33" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="I62" s="29">
-        <v>42825</v>
-      </c>
-      <c r="J62" s="31"/>
-      <c r="K62" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-    </row>
-    <row r="63" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I63" s="8"/>
-      <c r="J63" s="22"/>
+      <c r="J63" s="8"/>
       <c r="K63" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L63" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N63" s="14"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="14"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="16"/>
+      <c r="AN63" s="16"/>
+      <c r="AO63" s="16"/>
+      <c r="AP63" s="16"/>
+      <c r="AQ63" s="16"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="16"/>
+      <c r="AT63" s="16"/>
+    </row>
+    <row r="64" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>11</v>
@@ -4313,29 +4376,61 @@
         <v>13</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>130</v>
+      <c r="G64" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I64" s="8"/>
-      <c r="J64" s="22"/>
+        <v>283</v>
+      </c>
+      <c r="I64" s="8">
+        <v>42809</v>
+      </c>
+      <c r="J64" s="8"/>
       <c r="K64" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L64" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N64" s="14"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="14"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="16"/>
+      <c r="AN64" s="16"/>
+      <c r="AO64" s="16"/>
+      <c r="AP64" s="16"/>
+      <c r="AQ64" s="16"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="16"/>
+      <c r="AT64" s="16"/>
+    </row>
+    <row r="65" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>11</v>
@@ -4347,29 +4442,61 @@
         <v>13</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="22"/>
+        <v>286</v>
+      </c>
+      <c r="I65" s="8">
+        <v>42814</v>
+      </c>
+      <c r="J65" s="8"/>
       <c r="K65" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L65" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N65" s="14"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="14"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="16"/>
+      <c r="AN65" s="16"/>
+      <c r="AO65" s="16"/>
+      <c r="AP65" s="16"/>
+      <c r="AQ65" s="16"/>
+      <c r="AR65" s="12"/>
+      <c r="AS65" s="16"/>
+      <c r="AT65" s="16"/>
+    </row>
+    <row r="66" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>11</v>
@@ -4381,213 +4508,237 @@
         <v>13</v>
       </c>
       <c r="E66" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="I66" s="8">
+        <v>42822</v>
+      </c>
+      <c r="J66" s="8"/>
+      <c r="K66" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I67" s="8">
+        <v>42825</v>
+      </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I68" s="8"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I70" s="8"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="19" t="s">
+      <c r="F71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="5" t="s">
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="18" t="s">
+      <c r="F72" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H72" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I71" s="8"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71" s="9"/>
-    </row>
-    <row r="72" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="8"/>
+      <c r="I72" s="22"/>
       <c r="J72" s="22"/>
       <c r="K72" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L72" s="9"/>
-    </row>
-    <row r="73" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L72" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>11</v>
@@ -4599,25 +4750,29 @@
         <v>13</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73" s="22"/>
       <c r="J73" s="22"/>
       <c r="K73" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L73" s="9"/>
-    </row>
-    <row r="74" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L73" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>11</v>
@@ -4629,223 +4784,359 @@
         <v>13</v>
       </c>
       <c r="E74" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L74" s="9"/>
-    </row>
-    <row r="75" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="5" t="s">
+      <c r="F79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="7" t="s">
+      <c r="F80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" s="9"/>
-    </row>
-    <row r="76" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="5" t="s">
+      <c r="H80" s="6"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="18" t="s">
+      <c r="F81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76" s="9"/>
-    </row>
-    <row r="77" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-    </row>
-    <row r="78" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-    </row>
-    <row r="79" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-    </row>
-    <row r="80" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-    </row>
-    <row r="81" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="7"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="82" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="7"/>
+      <c r="A82" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="H82" s="6"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="83" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="7"/>
+      <c r="A83" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="H83" s="6"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="84" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="7"/>
+      <c r="A84" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="H84" s="6"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="85" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="4"/>
+      <c r="A85" s="4" t="s">
+        <v>298</v>
+      </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="21"/>
+      <c r="D85" s="20"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
@@ -4853,13 +5144,13 @@
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="21"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
     </row>
@@ -4867,13 +5158,13 @@
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="21"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="7"/>
       <c r="H87" s="6"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="22"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
     </row>
@@ -4881,13 +5172,13 @@
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="21"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
       <c r="G88" s="7"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
     </row>
@@ -4895,13 +5186,13 @@
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="21"/>
+      <c r="D89" s="20"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
       <c r="G89" s="7"/>
       <c r="H89" s="6"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
@@ -4909,13 +5200,13 @@
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="21"/>
+      <c r="D90" s="20"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
       <c r="G90" s="7"/>
       <c r="H90" s="6"/>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
     </row>
@@ -4923,13 +5214,13 @@
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="21"/>
+      <c r="D91" s="20"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
@@ -4937,13 +5228,13 @@
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="21"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="22"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
@@ -4951,13 +5242,13 @@
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="21"/>
+      <c r="D93" s="20"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
       <c r="G93" s="7"/>
       <c r="H93" s="6"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
     </row>
@@ -4965,13 +5256,13 @@
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="21"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
       <c r="G94" s="7"/>
       <c r="H94" s="6"/>
-      <c r="I94" s="22"/>
-      <c r="J94" s="22"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
     </row>
@@ -4979,645 +5270,15 @@
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="21"/>
+      <c r="D95" s="20"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
       <c r="G95" s="7"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="22"/>
-      <c r="J95" s="22"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
       <c r="K95" s="9"/>
       <c r="L95" s="9"/>
-    </row>
-    <row r="96" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-    </row>
-    <row r="97" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="9"/>
-    </row>
-    <row r="98" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="22"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-    </row>
-    <row r="99" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-    </row>
-    <row r="100" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-    </row>
-    <row r="101" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-    </row>
-    <row r="102" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="4"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-    </row>
-    <row r="103" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-    </row>
-    <row r="104" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="22"/>
-      <c r="J104" s="22"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-    </row>
-    <row r="105" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="4"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
-    </row>
-    <row r="106" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="4"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-    </row>
-    <row r="107" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-    </row>
-    <row r="108" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="4"/>
-      <c r="B108" s="5"/>
-      <c r="C108" s="5"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="22"/>
-      <c r="J108" s="22"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-    </row>
-    <row r="109" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="4"/>
-      <c r="B109" s="5"/>
-      <c r="C109" s="5"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="9"/>
-    </row>
-    <row r="110" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="4"/>
-      <c r="B110" s="5"/>
-      <c r="C110" s="5"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-    </row>
-    <row r="111" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="4"/>
-      <c r="B111" s="5"/>
-      <c r="C111" s="5"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-    </row>
-    <row r="112" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="4"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-    </row>
-    <row r="113" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="4"/>
-      <c r="B113" s="5"/>
-      <c r="C113" s="5"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-    </row>
-    <row r="114" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="4"/>
-      <c r="B114" s="5"/>
-      <c r="C114" s="5"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-    </row>
-    <row r="115" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="4"/>
-      <c r="B115" s="5"/>
-      <c r="C115" s="5"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-    </row>
-    <row r="116" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="4"/>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9"/>
-    </row>
-    <row r="117" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="4"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="9"/>
-      <c r="L117" s="9"/>
-    </row>
-    <row r="118" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="4"/>
-      <c r="B118" s="5"/>
-      <c r="C118" s="5"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-    </row>
-    <row r="119" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="4"/>
-      <c r="B119" s="5"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="22"/>
-      <c r="J119" s="22"/>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-    </row>
-    <row r="120" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-    </row>
-    <row r="121" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="4"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="5"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="22"/>
-      <c r="J121" s="22"/>
-      <c r="K121" s="9"/>
-      <c r="L121" s="9"/>
-    </row>
-    <row r="122" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="4"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="5"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="22"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
-    </row>
-    <row r="123" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="4"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
-    </row>
-    <row r="124" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="4"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="5"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="6"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="22"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
-    </row>
-    <row r="125" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="22"/>
-      <c r="J125" s="22"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
-    </row>
-    <row r="126" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="4"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="22"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
-    </row>
-    <row r="127" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="22"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
-    </row>
-    <row r="128" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="4"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="5"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
-    </row>
-    <row r="129" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="4"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="22"/>
-      <c r="J129" s="22"/>
-      <c r="K129" s="9"/>
-      <c r="L129" s="9"/>
-    </row>
-    <row r="130" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="4"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="21"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="22"/>
-      <c r="J130" s="22"/>
-      <c r="K130" s="9"/>
-      <c r="L130" s="9"/>
-    </row>
-    <row r="131" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="4"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="22"/>
-      <c r="J131" s="22"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-    </row>
-    <row r="132" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="4"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="21"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="22"/>
-      <c r="J132" s="22"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-    </row>
-    <row r="133" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="4"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="22"/>
-      <c r="J133" s="22"/>
-      <c r="K133" s="9"/>
-      <c r="L133" s="9"/>
-    </row>
-    <row r="134" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="4"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="22"/>
-      <c r="J134" s="22"/>
-      <c r="K134" s="9"/>
-      <c r="L134" s="9"/>
-    </row>
-    <row r="135" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="4"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="22"/>
-      <c r="J135" s="22"/>
-      <c r="K135" s="9"/>
-      <c r="L135" s="9"/>
-    </row>
-    <row r="136" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="4"/>
-      <c r="B136" s="20"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="20"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="22"/>
-      <c r="J136" s="22"/>
-      <c r="K136" s="9"/>
-      <c r="L136" s="9"/>
-    </row>
-    <row r="137" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="4"/>
-      <c r="B137" s="20"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="20"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="22"/>
-      <c r="J137" s="22"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="9"/>
-    </row>
-    <row r="138" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="4"/>
-      <c r="B138" s="20"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="20"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="22"/>
-      <c r="J138" s="22"/>
-      <c r="K138" s="9"/>
-      <c r="L138" s="9"/>
-    </row>
-    <row r="139" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="4"/>
-      <c r="B139" s="20"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="22"/>
-      <c r="J139" s="22"/>
-      <c r="K139" s="9"/>
-      <c r="L139" s="9"/>
-    </row>
-    <row r="140" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="4"/>
-      <c r="B140" s="20"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="22"/>
-      <c r="J140" s="22"/>
-      <c r="K140" s="9"/>
-      <c r="L140" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L38"/>
@@ -5627,13 +5288,12 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0.39305555555555599" header="0.31388888888888899" footer="0.31388888888888899"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddFooter>&amp;C编制/日期：                     审核/日期：                         复核/日期：                              批准/日期：</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5663,7 +5323,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -5702,11 +5362,11 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>217</v>
+      <c r="I2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -5726,19 +5386,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -5759,16 +5419,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -5789,16 +5449,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -5819,16 +5479,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -5849,16 +5509,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -5879,16 +5539,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>281</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -5909,16 +5569,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -5939,7 +5599,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7"/>
@@ -5963,7 +5623,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="7"/>
@@ -5987,7 +5647,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="7"/>
@@ -6001,7 +5661,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6026,7 +5686,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -6065,11 +5725,11 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>217</v>
+      <c r="I2" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>211</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -6080,7 +5740,7 @@
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -6103,8 +5763,8 @@
       <c r="H3" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
@@ -6112,7 +5772,7 @@
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -6135,8 +5795,8 @@
       <c r="H4" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="9" t="s">
         <v>18</v>
       </c>
@@ -6144,7 +5804,7 @@
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -6166,7 +5826,7 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="22"/>
+      <c r="J5" s="21"/>
       <c r="K5" s="9" t="s">
         <v>18</v>
       </c>
@@ -6176,7 +5836,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/doc/04.Schedule/开发计划.xlsx
+++ b/doc/04.Schedule/开发计划.xlsx
@@ -13,13 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="1" r:id="rId1"/>
-    <sheet name="前期准备计划" sheetId="3" r:id="rId2"/>
+    <sheet name="开发准备事项" sheetId="3" r:id="rId2"/>
     <sheet name="备份" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">备份!$A$1:$L$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">前期准备计划!$A$1:$L$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">开发准备事项!$A$1:$L$12</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="298">
   <si>
     <t>编号</t>
   </si>
@@ -399,12 +399,6 @@
   </si>
   <si>
     <t>31</t>
-  </si>
-  <si>
-    <t>调整单</t>
-  </si>
-  <si>
-    <t>数据月结前对有误差的数据用调整单进行调整</t>
   </si>
   <si>
     <t>32</t>
@@ -980,9 +974,6 @@
 2、增加红股入帐和新股入帐交割单数据的买卖判断
 3、修改忽略数据导出excel文件的文件格式为xlsx</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>81</t>
   </si>
   <si>
     <t>编制完成</t>
@@ -1113,16 +1104,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>账户的个股财务持仓/交割单持仓/当日委托持仓核对报表</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>账户收益核对功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、账户财务总收益/交割单总收益/当日委托总收益核对报表
-2、账户的个股财务收益/交割单收益/当日委托收益核对报表</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1194,16 +1176,32 @@
     <t>70</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>1、调整单类别
 2、交割单收益与财务收益差额调整单的处理对象（交割单和当日委托数据调整，明确到交易账户）
 3、当日委托收益与交割单收益差额调整单的目标数据对象（当日委托数据调整，明确到交易员和交易账号）</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户起初数据管理功能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>各账户每月期初数据：
+1、账户资金
+2、账户个股持仓</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户的个股财务持仓/交割单持仓/当日委托持仓核对报表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、账户财务总收益/交割单总收益/当日委托总收益核对报表
+2、账户的个股财务收益/交割单收益/当日委托收益核对报表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1488,15 +1486,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1806,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT95"/>
+  <dimension ref="A1:AT93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1829,20 +1818,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="A1" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1870,10 +1859,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -1893,7 +1882,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -2252,7 +2241,7 @@
     </row>
     <row r="13" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
@@ -2396,7 +2385,7 @@
     </row>
     <row r="17" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>11</v>
@@ -2520,16 +2509,16 @@
         <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="I20" s="24">
         <v>42664</v>
@@ -2558,16 +2547,16 @@
         <v>13</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I21" s="24">
         <v>42668</v>
@@ -2596,16 +2585,16 @@
         <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I22" s="24">
         <v>42670</v>
@@ -2622,7 +2611,7 @@
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>11</v>
@@ -2634,13 +2623,13 @@
         <v>13</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="24">
@@ -2670,13 +2659,13 @@
         <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="24">
@@ -2706,16 +2695,16 @@
         <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I25" s="24">
         <v>42677</v>
@@ -2744,13 +2733,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="24">
@@ -2780,13 +2769,13 @@
         <v>13</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="24">
@@ -2822,10 +2811,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I28" s="24">
         <v>42685</v>
@@ -2854,16 +2843,16 @@
         <v>13</v>
       </c>
       <c r="E29" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="27" t="s">
         <v>147</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>149</v>
       </c>
       <c r="I29" s="24">
         <v>42688</v>
@@ -2892,16 +2881,16 @@
         <v>13</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I30" s="24">
         <v>42688</v>
@@ -2930,16 +2919,16 @@
         <v>13</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I31" s="24">
         <v>42688</v>
@@ -2968,16 +2957,16 @@
         <v>13</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="I32" s="24">
         <v>42689</v>
@@ -3006,16 +2995,16 @@
         <v>13</v>
       </c>
       <c r="E33" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="27" t="s">
         <v>153</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>155</v>
       </c>
       <c r="I33" s="24">
         <v>42689</v>
@@ -3032,7 +3021,7 @@
     </row>
     <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>11</v>
@@ -3044,16 +3033,16 @@
         <v>13</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="I34" s="24">
         <v>42689</v>
@@ -3070,7 +3059,7 @@
     </row>
     <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>11</v>
@@ -3082,16 +3071,16 @@
         <v>13</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F35" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I35" s="32">
         <v>42720</v>
@@ -3108,7 +3097,7 @@
     </row>
     <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>11</v>
@@ -3120,16 +3109,16 @@
         <v>13</v>
       </c>
       <c r="E36" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36" s="27" t="s">
         <v>172</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>174</v>
       </c>
       <c r="I36" s="24">
         <v>42711</v>
@@ -3146,7 +3135,7 @@
     </row>
     <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>11</v>
@@ -3158,16 +3147,16 @@
         <v>13</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I37" s="24">
         <v>42712</v>
@@ -3184,7 +3173,7 @@
     </row>
     <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>11</v>
@@ -3196,16 +3185,16 @@
         <v>13</v>
       </c>
       <c r="E38" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="27" t="s">
         <v>169</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>171</v>
       </c>
       <c r="I38" s="24">
         <v>42713</v>
@@ -3222,7 +3211,7 @@
     </row>
     <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>11</v>
@@ -3234,16 +3223,16 @@
         <v>13</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F39" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I39" s="32">
         <v>42727</v>
@@ -3260,28 +3249,28 @@
     </row>
     <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>103</v>
-      </c>
       <c r="F40" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I40" s="32">
         <v>42731</v>
@@ -3298,7 +3287,7 @@
     </row>
     <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>11</v>
@@ -3310,13 +3299,13 @@
         <v>13</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="24">
@@ -3334,7 +3323,7 @@
     </row>
     <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>11</v>
@@ -3346,16 +3335,16 @@
         <v>13</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I42" s="24">
         <v>42739</v>
@@ -3402,7 +3391,7 @@
     </row>
     <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>11</v>
@@ -3414,16 +3403,16 @@
         <v>13</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I43" s="24">
         <v>42740</v>
@@ -3468,9 +3457,9 @@
       <c r="AS43" s="16"/>
       <c r="AT43" s="16"/>
     </row>
-    <row r="44" spans="1:46" s="11" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>11</v>
@@ -3482,16 +3471,16 @@
         <v>13</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I44" s="24">
         <v>42741</v>
@@ -3536,9 +3525,9 @@
       <c r="AS44" s="16"/>
       <c r="AT44" s="16"/>
     </row>
-    <row r="45" spans="1:46" s="11" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>11</v>
@@ -3550,16 +3539,16 @@
         <v>13</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I45" s="24">
         <v>42741</v>
@@ -3606,7 +3595,7 @@
     </row>
     <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>11</v>
@@ -3618,16 +3607,16 @@
         <v>13</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="I46" s="24">
         <v>42744</v>
@@ -3644,7 +3633,7 @@
     </row>
     <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>11</v>
@@ -3656,16 +3645,16 @@
         <v>13</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I47" s="24">
         <v>42745</v>
@@ -3682,7 +3671,7 @@
     </row>
     <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>11</v>
@@ -3694,16 +3683,16 @@
         <v>13</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I48" s="24">
         <v>42746</v>
@@ -3720,7 +3709,7 @@
     </row>
     <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>11</v>
@@ -3732,16 +3721,16 @@
         <v>13</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I49" s="24">
         <v>42747</v>
@@ -3758,7 +3747,7 @@
     </row>
     <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>11</v>
@@ -3770,16 +3759,16 @@
         <v>13</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I50" s="24">
         <v>42748</v>
@@ -3796,7 +3785,7 @@
     </row>
     <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>11</v>
@@ -3808,16 +3797,16 @@
         <v>13</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I51" s="24">
         <v>42751</v>
@@ -3836,7 +3825,7 @@
     </row>
     <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>11</v>
@@ -3848,16 +3837,16 @@
         <v>13</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I52" s="24">
         <v>42752</v>
@@ -3876,7 +3865,7 @@
     </row>
     <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>11</v>
@@ -3888,16 +3877,16 @@
         <v>13</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="I53" s="24">
         <v>42755</v>
@@ -3916,7 +3905,7 @@
     </row>
     <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>11</v>
@@ -3928,16 +3917,16 @@
         <v>13</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="H54" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="I54" s="24">
         <v>42755</v>
@@ -3956,7 +3945,7 @@
     </row>
     <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>11</v>
@@ -3968,16 +3957,16 @@
         <v>13</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="I55" s="24">
         <v>42773</v>
@@ -3989,14 +3978,14 @@
         <v>18</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
     <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>11</v>
@@ -4008,16 +3997,16 @@
         <v>13</v>
       </c>
       <c r="E56" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="I56" s="24">
         <v>42775</v>
@@ -4036,7 +4025,7 @@
     </row>
     <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>11</v>
@@ -4048,16 +4037,16 @@
         <v>13</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I57" s="24">
         <v>42775</v>
@@ -4069,14 +4058,14 @@
         <v>18</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="1:46" s="11" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>11</v>
@@ -4088,113 +4077,113 @@
         <v>13</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="H58" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="I58" s="37">
-        <v>42780</v>
-      </c>
-      <c r="J58" s="37"/>
+        <v>15</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I58" s="24">
+        <v>42781</v>
+      </c>
+      <c r="J58" s="24">
+        <v>42781</v>
+      </c>
       <c r="K58" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="1:46" s="11" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="I59" s="24">
-        <v>42781</v>
-      </c>
-      <c r="J59" s="24">
-        <v>42781</v>
-      </c>
-      <c r="K59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-    </row>
-    <row r="60" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>162</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="H59" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="I59" s="32">
+        <v>42783</v>
+      </c>
+      <c r="J59" s="32">
+        <v>42787</v>
+      </c>
+      <c r="K59" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+    </row>
+    <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F60" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="H60" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="I60" s="32">
-        <v>42783</v>
-      </c>
-      <c r="J60" s="32">
-        <v>42788</v>
-      </c>
-      <c r="K60" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I60" s="24">
+        <v>42790</v>
+      </c>
+      <c r="J60" s="24">
+        <v>42790</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
     </row>
     <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>11</v>
@@ -4206,16 +4195,16 @@
         <v>13</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="I61" s="24">
         <v>42795</v>
@@ -4232,7 +4221,7 @@
     </row>
     <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>11</v>
@@ -4244,21 +4233,23 @@
         <v>13</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="I62" s="24">
         <v>42800</v>
       </c>
-      <c r="J62" s="24"/>
+      <c r="J62" s="24">
+        <v>42797</v>
+      </c>
       <c r="K62" s="9" t="s">
         <v>18</v>
       </c>
@@ -4298,7 +4289,7 @@
     </row>
     <row r="63" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>11</v>
@@ -4310,16 +4301,16 @@
         <v>13</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I63" s="8">
         <v>42804</v>
@@ -4364,7 +4355,7 @@
     </row>
     <row r="64" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>11</v>
@@ -4376,16 +4367,16 @@
         <v>13</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I64" s="8">
         <v>42809</v>
@@ -4430,7 +4421,7 @@
     </row>
     <row r="65" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>11</v>
@@ -4442,16 +4433,16 @@
         <v>13</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I65" s="8">
         <v>42814</v>
@@ -4496,7 +4487,7 @@
     </row>
     <row r="66" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>11</v>
@@ -4508,16 +4499,16 @@
         <v>13</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I66" s="8">
         <v>42822</v>
@@ -4532,7 +4523,7 @@
     </row>
     <row r="67" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>11</v>
@@ -4544,16 +4535,16 @@
         <v>13</v>
       </c>
       <c r="E67" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I67" s="8">
         <v>42825</v>
@@ -4568,7 +4559,7 @@
     </row>
     <row r="68" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>11</v>
@@ -4580,16 +4571,16 @@
         <v>13</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="21"/>
@@ -4602,7 +4593,7 @@
     </row>
     <row r="69" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>11</v>
@@ -4614,16 +4605,16 @@
         <v>13</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="21"/>
@@ -4636,7 +4627,7 @@
     </row>
     <row r="70" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>11</v>
@@ -4648,16 +4639,16 @@
         <v>13</v>
       </c>
       <c r="E70" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="H70" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="21"/>
@@ -4670,7 +4661,7 @@
     </row>
     <row r="71" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>11</v>
@@ -4704,7 +4695,7 @@
     </row>
     <row r="72" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>11</v>
@@ -4738,7 +4729,7 @@
     </row>
     <row r="73" spans="1:46" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>11</v>
@@ -4772,7 +4763,7 @@
     </row>
     <row r="74" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>11</v>
@@ -4804,7 +4795,7 @@
     </row>
     <row r="75" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>11</v>
@@ -4816,13 +4807,13 @@
         <v>13</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>83</v>
+      <c r="G75" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="8"/>
@@ -4836,7 +4827,7 @@
     </row>
     <row r="76" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>11</v>
@@ -4848,18 +4839,16 @@
         <v>13</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I76" s="8"/>
+      <c r="G76" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="23"/>
       <c r="J76" s="21"/>
       <c r="K76" s="9" t="s">
         <v>18</v>
@@ -4870,7 +4859,7 @@
     </row>
     <row r="77" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>11</v>
@@ -4882,13 +4871,13 @@
         <v>13</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="18" t="s">
-        <v>91</v>
+      <c r="G77" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="8"/>
@@ -4902,7 +4891,7 @@
     </row>
     <row r="78" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>11</v>
@@ -4914,16 +4903,16 @@
         <v>13</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="18" t="s">
-        <v>93</v>
+      <c r="G78" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="H78" s="6"/>
-      <c r="I78" s="23"/>
+      <c r="I78" s="21"/>
       <c r="J78" s="21"/>
       <c r="K78" s="9" t="s">
         <v>18</v>
@@ -4934,7 +4923,7 @@
     </row>
     <row r="79" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>11</v>
@@ -4951,8 +4940,8 @@
       <c r="F79" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>253</v>
+      <c r="G79" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="8"/>
@@ -4964,9 +4953,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>11</v>
@@ -4978,13 +4967,13 @@
         <v>13</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>97</v>
+        <v>289</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="21"/>
@@ -4996,9 +4985,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>11</v>
@@ -5015,11 +5004,11 @@
       <c r="F81" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="18" t="s">
-        <v>99</v>
+      <c r="G81" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="H81" s="6"/>
-      <c r="I81" s="8"/>
+      <c r="I81" s="21"/>
       <c r="J81" s="21"/>
       <c r="K81" s="9" t="s">
         <v>18</v>
@@ -5028,9 +5017,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>11</v>
@@ -5042,13 +5031,13 @@
         <v>13</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="21"/>
@@ -5060,74 +5049,58 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
       <c r="K83" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L83" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>274</v>
-      </c>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+    </row>
+    <row r="84" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="7"/>
       <c r="H84" s="6"/>
       <c r="I84" s="21"/>
       <c r="J84" s="21"/>
-      <c r="K84" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L84" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
-        <v>298</v>
-      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="20"/>
@@ -5140,7 +5113,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -5154,7 +5127,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5168,7 +5141,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -5182,7 +5155,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -5196,7 +5169,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5210,7 +5183,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -5224,7 +5197,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -5238,7 +5211,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -5251,34 +5224,6 @@
       <c r="J93" s="21"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
-    </row>
-    <row r="94" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-    </row>
-    <row r="95" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="21"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L38"/>
@@ -5322,20 +5267,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="A1" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -5363,10 +5308,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -5386,19 +5331,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -5419,16 +5364,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -5449,16 +5394,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -5479,16 +5424,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -5509,16 +5454,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -5539,16 +5484,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -5569,16 +5514,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -5599,7 +5544,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7"/>
@@ -5623,7 +5568,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="7"/>
@@ -5647,7 +5592,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="7"/>
@@ -5685,20 +5630,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="A1" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -5726,10 +5671,10 @@
         <v>7</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -5740,7 +5685,7 @@
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -5772,7 +5717,7 @@
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -5804,7 +5749,7 @@
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>

--- a/doc/04.Schedule/开发计划.xlsx
+++ b/doc/04.Schedule/开发计划.xlsx
@@ -1182,10 +1182,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>账户起初数据管理功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>各账户每月期初数据：
 1、账户资金
 2、账户个股持仓</t>
@@ -1202,6 +1198,10 @@
   </si>
   <si>
     <t>81</t>
+  </si>
+  <si>
+    <t>账户期初数据管理功能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1797,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4163,10 +4163,10 @@
         <v>15</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>294</v>
       </c>
       <c r="I60" s="24">
         <v>42790</v>
@@ -4204,7 +4204,7 @@
         <v>273</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I61" s="24">
         <v>42795</v>
@@ -4242,7 +4242,7 @@
         <v>274</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I62" s="24">
         <v>42800</v>
@@ -4287,9 +4287,9 @@
       <c r="AS62" s="16"/>
       <c r="AT62" s="16"/>
     </row>
-    <row r="63" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>11</v>
@@ -4301,21 +4301,23 @@
         <v>13</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I63" s="8">
+        <v>278</v>
+      </c>
+      <c r="I63" s="24">
         <v>42804</v>
       </c>
-      <c r="J63" s="8"/>
+      <c r="J63" s="24">
+        <v>42804</v>
+      </c>
       <c r="K63" s="9" t="s">
         <v>18</v>
       </c>
@@ -4353,9 +4355,9 @@
       <c r="AS63" s="16"/>
       <c r="AT63" s="16"/>
     </row>
-    <row r="64" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>11</v>
@@ -4367,19 +4369,19 @@
         <v>13</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="I64" s="8">
-        <v>42809</v>
+        <v>42811</v>
       </c>
       <c r="J64" s="8"/>
       <c r="K64" s="9" t="s">
@@ -4419,9 +4421,9 @@
       <c r="AS64" s="16"/>
       <c r="AT64" s="16"/>
     </row>
-    <row r="65" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>11</v>
@@ -4433,19 +4435,19 @@
         <v>13</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="I65" s="8">
-        <v>42814</v>
+        <v>42818</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="9" t="s">
@@ -5051,7 +5053,7 @@
     </row>
     <row r="83" spans="1:14" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>11</v>

--- a/doc/04.Schedule/开发计划.xlsx
+++ b/doc/04.Schedule/开发计划.xlsx
@@ -17,7 +17,7 @@
     <sheet name="备份" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">备份!$A$1:$L$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">开发准备事项!$A$1:$L$12</definedName>
   </definedNames>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="301">
   <si>
     <t>编号</t>
   </si>
@@ -1203,12 +1203,24 @@
     <t>账户期初数据管理功能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>分析决策表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人首页</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资人员风控信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1797,11 +1809,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT93"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
     <col min="2" max="3" width="9.25" style="14" customWidth="1"/>
@@ -1817,7 +1829,7 @@
     <col min="13" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -1833,7 +1845,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +1883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="25.15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="25.15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="25.15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1983,7 +1995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="25.15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="25.15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -2057,7 +2069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="25.15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2093,7 +2105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2131,7 +2143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="25.15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -2167,7 +2179,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="25.15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -2203,7 +2215,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="25.15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2239,7 +2251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="25.15" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>154</v>
       </c>
@@ -2275,7 +2287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="25.15" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="25.15" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -2347,7 +2359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="27.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -2383,7 +2395,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="25.15" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2421,7 +2433,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="25.15" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -2457,7 +2469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="25.15" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -2495,7 +2507,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="25.15" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -2533,7 +2545,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="25.15" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
@@ -2571,7 +2583,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -2609,7 +2621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>156</v>
       </c>
@@ -2645,7 +2657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
@@ -2681,7 +2693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
@@ -2719,7 +2731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
@@ -2755,7 +2767,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>72</v>
       </c>
@@ -2791,7 +2803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>76</v>
       </c>
@@ -2829,7 +2841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
@@ -2867,7 +2879,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
@@ -2905,7 +2917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>84</v>
       </c>
@@ -2943,7 +2955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
@@ -2981,7 +2993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>86</v>
       </c>
@@ -3019,7 +3031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
@@ -3057,7 +3069,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>90</v>
       </c>
@@ -3095,7 +3107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3133,7 +3145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>93</v>
       </c>
@@ -3171,7 +3183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
@@ -3247,7 +3259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>99</v>
       </c>
@@ -3285,7 +3297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>100</v>
       </c>
@@ -3321,7 +3333,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>104</v>
       </c>
@@ -3389,7 +3401,7 @@
       <c r="AS42" s="16"/>
       <c r="AT42" s="16"/>
     </row>
-    <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>107</v>
       </c>
@@ -3457,7 +3469,7 @@
       <c r="AS43" s="16"/>
       <c r="AT43" s="16"/>
     </row>
-    <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>109</v>
       </c>
@@ -3525,7 +3537,7 @@
       <c r="AS44" s="16"/>
       <c r="AT44" s="16"/>
     </row>
-    <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>111</v>
       </c>
@@ -3593,7 +3605,7 @@
       <c r="AS45" s="16"/>
       <c r="AT45" s="16"/>
     </row>
-    <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>113</v>
       </c>
@@ -3631,7 +3643,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>116</v>
       </c>
@@ -3669,7 +3681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>117</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>120</v>
       </c>
@@ -3745,7 +3757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>124</v>
       </c>
@@ -3783,7 +3795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>127</v>
       </c>
@@ -3823,7 +3835,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
@@ -3863,7 +3875,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>132</v>
       </c>
@@ -3903,7 +3915,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>137</v>
       </c>
@@ -3943,7 +3955,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>144</v>
       </c>
@@ -3983,7 +3995,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>150</v>
       </c>
@@ -4023,7 +4035,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>160</v>
       </c>
@@ -4063,7 +4075,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>161</v>
       </c>
@@ -4103,7 +4115,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>162</v>
       </c>
@@ -4143,7 +4155,7 @@
       <c r="M59" s="29"/>
       <c r="N59" s="29"/>
     </row>
-    <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>163</v>
       </c>
@@ -4181,7 +4193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>189</v>
       </c>
@@ -4219,7 +4231,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>190</v>
       </c>
@@ -4287,7 +4299,7 @@
       <c r="AS62" s="16"/>
       <c r="AT62" s="16"/>
     </row>
-    <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>192</v>
       </c>
@@ -4355,7 +4367,7 @@
       <c r="AS63" s="16"/>
       <c r="AT63" s="16"/>
     </row>
-    <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>193</v>
       </c>
@@ -4421,7 +4433,7 @@
       <c r="AS64" s="16"/>
       <c r="AT64" s="16"/>
     </row>
-    <row r="65" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>191</v>
       </c>
@@ -4487,7 +4499,7 @@
       <c r="AS65" s="16"/>
       <c r="AT65" s="16"/>
     </row>
-    <row r="66" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>194</v>
       </c>
@@ -4523,7 +4535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>195</v>
       </c>
@@ -4559,134 +4571,80 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="1:46" ht="25.15" customHeight="1">
+      <c r="A71" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="B71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="6" t="s">
+      <c r="F71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H71" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I69" s="8"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I70" s="8"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I71" s="21"/>
+      <c r="I71" s="8"/>
       <c r="J71" s="21"/>
       <c r="K71" s="9" t="s">
         <v>18</v>
@@ -4695,9 +4653,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:46" ht="25.15" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>11</v>
@@ -4709,19 +4667,19 @@
         <v>13</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="18" t="s">
-        <v>74</v>
+      <c r="G72" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
+        <v>128</v>
+      </c>
+      <c r="I72" s="8"/>
+      <c r="J72" s="21"/>
       <c r="K72" s="9" t="s">
         <v>18</v>
       </c>
@@ -4729,9 +4687,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:46" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>11</v>
@@ -4743,19 +4701,19 @@
         <v>13</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>77</v>
+        <v>134</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
+        <v>136</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="21"/>
       <c r="K73" s="9" t="s">
         <v>18</v>
       </c>
@@ -4763,9 +4721,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:46" ht="25.15" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>11</v>
@@ -4777,15 +4735,17 @@
         <v>13</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H74" s="6"/>
+      <c r="G74" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="I74" s="21"/>
       <c r="J74" s="21"/>
       <c r="K74" s="9" t="s">
@@ -4795,9 +4755,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:46" ht="25.15" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>11</v>
@@ -4809,17 +4769,19 @@
         <v>13</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="21"/>
+        <v>74</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
       <c r="K75" s="9" t="s">
         <v>18</v>
       </c>
@@ -4827,9 +4789,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:46" ht="29.25" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>11</v>
@@ -4841,17 +4803,19 @@
         <v>13</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="21"/>
+        <v>77</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
       <c r="K76" s="9" t="s">
         <v>18</v>
       </c>
@@ -4859,9 +4823,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:46" ht="25.15" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>11</v>
@@ -4873,16 +4837,16 @@
         <v>13</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="7" t="s">
-        <v>250</v>
+      <c r="G77" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="H77" s="6"/>
-      <c r="I77" s="8"/>
+      <c r="I77" s="21"/>
       <c r="J77" s="21"/>
       <c r="K77" s="9" t="s">
         <v>18</v>
@@ -4891,9 +4855,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:46" ht="25.15" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>11</v>
@@ -4905,16 +4869,16 @@
         <v>13</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G78" s="7" t="s">
-        <v>95</v>
+      <c r="G78" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="H78" s="6"/>
-      <c r="I78" s="21"/>
+      <c r="I78" s="8"/>
       <c r="J78" s="21"/>
       <c r="K78" s="9" t="s">
         <v>18</v>
@@ -4923,9 +4887,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:46" ht="25.15" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>11</v>
@@ -4937,16 +4901,16 @@
         <v>13</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H79" s="6"/>
-      <c r="I79" s="8"/>
+      <c r="I79" s="23"/>
       <c r="J79" s="21"/>
       <c r="K79" s="9" t="s">
         <v>18</v>
@@ -4955,9 +4919,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:46" ht="25.15" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>11</v>
@@ -4975,10 +4939,10 @@
         <v>15</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="H80" s="6"/>
-      <c r="I80" s="21"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="21"/>
       <c r="K80" s="9" t="s">
         <v>18</v>
@@ -4987,9 +4951,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" ht="25.15" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>11</v>
@@ -5001,13 +4965,13 @@
         <v>13</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="21"/>
@@ -5019,9 +4983,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" ht="25.15" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>11</v>
@@ -5033,16 +4997,16 @@
         <v>13</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>271</v>
+      <c r="G82" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="H82" s="6"/>
-      <c r="I82" s="21"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="21"/>
       <c r="K82" s="9" t="s">
         <v>18</v>
@@ -5051,9 +5015,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>11</v>
@@ -5065,71 +5029,125 @@
         <v>13</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
+        <v>289</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
       <c r="K83" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L83" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-    </row>
-    <row r="84" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="7"/>
+    </row>
+    <row r="84" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A84" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="H84" s="6"/>
       <c r="I84" s="21"/>
       <c r="J84" s="21"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-    </row>
-    <row r="85" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="7"/>
+      <c r="K84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A85" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="H85" s="6"/>
       <c r="I85" s="21"/>
       <c r="J85" s="21"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-    </row>
-    <row r="86" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="4"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-    </row>
-    <row r="87" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K85" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="11" customFormat="1" ht="39" customHeight="1">
+      <c r="A86" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+    </row>
+    <row r="87" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -5143,7 +5161,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -5157,7 +5175,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -5171,7 +5189,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5185,7 +5203,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -5199,7 +5217,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -5213,7 +5231,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -5255,7 +5273,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
@@ -5268,7 +5286,7 @@
     <col min="12" max="12" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -5284,7 +5302,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5322,7 +5340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="37.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -5352,7 +5370,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="81" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -5382,7 +5400,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -5412,7 +5430,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="123" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -5442,7 +5460,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="53.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -5472,7 +5490,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -5502,7 +5520,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="41.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -5532,7 +5550,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -5556,7 +5574,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -5580,7 +5598,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -5623,7 +5641,7 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
@@ -5631,7 +5649,7 @@
     <col min="8" max="8" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -5647,7 +5665,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5685,7 +5703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>251</v>
       </c>
@@ -5717,7 +5735,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>252</v>
       </c>
@@ -5749,7 +5767,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>253</v>
       </c>

--- a/doc/04.Schedule/开发计划.xlsx
+++ b/doc/04.Schedule/开发计划.xlsx
@@ -17,7 +17,7 @@
     <sheet name="备份" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">备份!$A$1:$L$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">开发准备事项!$A$1:$L$12</definedName>
   </definedNames>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="305">
   <si>
     <t>编号</t>
   </si>
@@ -1215,12 +1215,25 @@
     <t>投资人员风控信息</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>日内分时多日、波段K线成交标识</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1807,13 +1820,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT93"/>
+  <dimension ref="A1:AT94"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A67" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
     <col min="2" max="3" width="9.25" style="14" customWidth="1"/>
@@ -1829,7 +1842,7 @@
     <col min="13" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -1845,7 +1858,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1883,7 +1896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25.15" customHeight="1">
+    <row r="3" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="25.15" customHeight="1">
+    <row r="4" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1957,7 +1970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25.15" customHeight="1">
+    <row r="5" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1995,7 +2008,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="25.15" customHeight="1">
+    <row r="6" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -2033,7 +2046,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25.15" customHeight="1">
+    <row r="7" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -2069,7 +2082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="25.15" customHeight="1">
+    <row r="8" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2105,7 +2118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2143,7 +2156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.15" customHeight="1">
+    <row r="10" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -2179,7 +2192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25.15" customHeight="1">
+    <row r="11" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -2215,7 +2228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="25.15" customHeight="1">
+    <row r="12" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2251,7 +2264,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="25.15" customHeight="1">
+    <row r="13" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>154</v>
       </c>
@@ -2287,7 +2300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="25.15" customHeight="1">
+    <row r="14" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -2323,7 +2336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="25.15" customHeight="1">
+    <row r="15" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -2359,7 +2372,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="27.75" customHeight="1">
+    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -2395,7 +2408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="25.15" customHeight="1">
+    <row r="17" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2433,7 +2446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="25.15" customHeight="1">
+    <row r="18" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -2469,7 +2482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.15" customHeight="1">
+    <row r="19" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -2507,7 +2520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="25.15" customHeight="1">
+    <row r="20" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -2545,7 +2558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="25.15" customHeight="1">
+    <row r="21" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
@@ -2583,7 +2596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="22" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -2621,7 +2634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>156</v>
       </c>
@@ -2657,7 +2670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="24" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
@@ -2693,7 +2706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="25" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
@@ -2731,7 +2744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="26" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
@@ -2767,7 +2780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="27" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>72</v>
       </c>
@@ -2803,7 +2816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="28" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>76</v>
       </c>
@@ -2841,7 +2854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="29" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
@@ -2879,7 +2892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1">
+    <row r="30" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
@@ -2917,7 +2930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+    <row r="31" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>84</v>
       </c>
@@ -2955,7 +2968,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="32" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
@@ -2993,7 +3006,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="33" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>86</v>
       </c>
@@ -3031,7 +3044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
@@ -3069,7 +3082,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1">
+    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>90</v>
       </c>
@@ -3107,7 +3120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3145,7 +3158,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1">
+    <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>93</v>
       </c>
@@ -3183,7 +3196,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
@@ -3221,7 +3234,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1">
+    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
@@ -3259,7 +3272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
+    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>99</v>
       </c>
@@ -3297,7 +3310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1">
+    <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>100</v>
       </c>
@@ -3333,7 +3346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
+    <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>104</v>
       </c>
@@ -3401,7 +3414,7 @@
       <c r="AS42" s="16"/>
       <c r="AT42" s="16"/>
     </row>
-    <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>107</v>
       </c>
@@ -3469,7 +3482,7 @@
       <c r="AS43" s="16"/>
       <c r="AT43" s="16"/>
     </row>
-    <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1">
+    <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>109</v>
       </c>
@@ -3537,7 +3550,7 @@
       <c r="AS44" s="16"/>
       <c r="AT44" s="16"/>
     </row>
-    <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1">
+    <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>111</v>
       </c>
@@ -3605,7 +3618,7 @@
       <c r="AS45" s="16"/>
       <c r="AT45" s="16"/>
     </row>
-    <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
+    <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>113</v>
       </c>
@@ -3643,7 +3656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
+    <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>116</v>
       </c>
@@ -3681,7 +3694,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
+    <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>117</v>
       </c>
@@ -3719,7 +3732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
+    <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>120</v>
       </c>
@@ -3757,7 +3770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1">
+    <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>124</v>
       </c>
@@ -3795,7 +3808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
+    <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>127</v>
       </c>
@@ -3835,7 +3848,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1">
+    <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
@@ -3875,7 +3888,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1">
+    <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>132</v>
       </c>
@@ -3915,7 +3928,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1">
+    <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>137</v>
       </c>
@@ -3955,7 +3968,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1">
+    <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>144</v>
       </c>
@@ -3995,7 +4008,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
+    <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>150</v>
       </c>
@@ -4035,7 +4048,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1">
+    <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>160</v>
       </c>
@@ -4075,7 +4088,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1">
+    <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>161</v>
       </c>
@@ -4115,7 +4128,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
+    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>162</v>
       </c>
@@ -4155,7 +4168,7 @@
       <c r="M59" s="29"/>
       <c r="N59" s="29"/>
     </row>
-    <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1">
+    <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>163</v>
       </c>
@@ -4193,7 +4206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1">
+    <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>189</v>
       </c>
@@ -4231,7 +4244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1">
+    <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>190</v>
       </c>
@@ -4299,7 +4312,7 @@
       <c r="AS62" s="16"/>
       <c r="AT62" s="16"/>
     </row>
-    <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1">
+    <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>192</v>
       </c>
@@ -4367,7 +4380,7 @@
       <c r="AS63" s="16"/>
       <c r="AT63" s="16"/>
     </row>
-    <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
+    <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>193</v>
       </c>
@@ -4392,10 +4405,12 @@
       <c r="H64" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="24">
         <v>42811</v>
       </c>
-      <c r="J64" s="8"/>
+      <c r="J64" s="24">
+        <v>42811</v>
+      </c>
       <c r="K64" s="9" t="s">
         <v>18</v>
       </c>
@@ -4433,7 +4448,7 @@
       <c r="AS64" s="16"/>
       <c r="AT64" s="16"/>
     </row>
-    <row r="65" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1">
+    <row r="65" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>191</v>
       </c>
@@ -4499,7 +4514,7 @@
       <c r="AS65" s="16"/>
       <c r="AT65" s="16"/>
     </row>
-    <row r="66" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
+    <row r="66" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>194</v>
       </c>
@@ -4535,7 +4550,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1">
+    <row r="67" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>195</v>
       </c>
@@ -4571,57 +4586,89 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="68" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
       <c r="G68" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="H68" s="6"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
       <c r="K68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
+    <row r="69" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G69" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
+      <c r="K69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G70" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="21"/>
       <c r="J70" s="21"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="1:46" ht="25.15" customHeight="1">
+      <c r="K70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>11</v>
@@ -4638,13 +4685,11 @@
       <c r="F71" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G71" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I71" s="8"/>
+      <c r="G71" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="21"/>
       <c r="J71" s="21"/>
       <c r="K71" s="9" t="s">
         <v>18</v>
@@ -4653,9 +4698,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:46" ht="25.15" customHeight="1">
+    <row r="72" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>11</v>
@@ -4673,10 +4718,10 @@
         <v>15</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="21"/>
@@ -4687,9 +4732,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="73" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>11</v>
@@ -4701,16 +4746,16 @@
         <v>13</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>135</v>
+        <v>15</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="21"/>
@@ -4721,9 +4766,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:46" ht="25.15" customHeight="1">
+    <row r="74" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>290</v>
+        <v>199</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>11</v>
@@ -4735,18 +4780,18 @@
         <v>13</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>70</v>
+        <v>134</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I74" s="21"/>
+        <v>136</v>
+      </c>
+      <c r="I74" s="8"/>
       <c r="J74" s="21"/>
       <c r="K74" s="9" t="s">
         <v>18</v>
@@ -4755,9 +4800,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:46" ht="25.15" customHeight="1">
+    <row r="75" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>11</v>
@@ -4769,50 +4814,50 @@
         <v>13</v>
       </c>
       <c r="E75" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="18" t="s">
+      <c r="F76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:46" ht="29.25" customHeight="1">
-      <c r="A76" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="I76" s="22"/>
       <c r="J76" s="22"/>
@@ -4823,9 +4868,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:46" ht="25.15" customHeight="1">
+    <row r="77" spans="1:46" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>11</v>
@@ -4837,48 +4882,50 @@
         <v>13</v>
       </c>
       <c r="E77" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="18" t="s">
+      <c r="F78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:46" ht="25.15" customHeight="1">
-      <c r="A78" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>89</v>
-      </c>
       <c r="H78" s="6"/>
-      <c r="I78" s="8"/>
+      <c r="I78" s="21"/>
       <c r="J78" s="21"/>
       <c r="K78" s="9" t="s">
         <v>18</v>
@@ -4887,9 +4934,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:46" ht="25.15" customHeight="1">
+    <row r="79" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>11</v>
@@ -4907,10 +4954,10 @@
         <v>15</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H79" s="6"/>
-      <c r="I79" s="23"/>
+      <c r="I79" s="8"/>
       <c r="J79" s="21"/>
       <c r="K79" s="9" t="s">
         <v>18</v>
@@ -4919,9 +4966,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:46" ht="25.15" customHeight="1">
+    <row r="80" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>11</v>
@@ -4933,16 +4980,16 @@
         <v>13</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>250</v>
+      <c r="G80" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="H80" s="6"/>
-      <c r="I80" s="8"/>
+      <c r="I80" s="23"/>
       <c r="J80" s="21"/>
       <c r="K80" s="9" t="s">
         <v>18</v>
@@ -4951,9 +4998,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="25.15" customHeight="1">
+    <row r="81" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>11</v>
@@ -4965,16 +5012,16 @@
         <v>13</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="H81" s="6"/>
-      <c r="I81" s="21"/>
+      <c r="I81" s="8"/>
       <c r="J81" s="21"/>
       <c r="K81" s="9" t="s">
         <v>18</v>
@@ -4983,9 +5030,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="25.15" customHeight="1">
+    <row r="82" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>11</v>
@@ -4997,16 +5044,16 @@
         <v>13</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="18" t="s">
-        <v>97</v>
+      <c r="G82" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="H82" s="6"/>
-      <c r="I82" s="8"/>
+      <c r="I82" s="21"/>
       <c r="J82" s="21"/>
       <c r="K82" s="9" t="s">
         <v>18</v>
@@ -5015,9 +5062,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="83" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>11</v>
@@ -5034,11 +5081,11 @@
       <c r="F83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>289</v>
+      <c r="G83" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="H83" s="6"/>
-      <c r="I83" s="21"/>
+      <c r="I83" s="8"/>
       <c r="J83" s="21"/>
       <c r="K83" s="9" t="s">
         <v>18</v>
@@ -5047,9 +5094,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="84" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>11</v>
@@ -5067,7 +5114,7 @@
         <v>15</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="21"/>
@@ -5079,9 +5126,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="85" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>11</v>
@@ -5093,13 +5140,13 @@
         <v>13</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="21"/>
@@ -5111,9 +5158,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="11" customFormat="1" ht="39" customHeight="1">
+    <row r="86" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>11</v>
@@ -5125,43 +5172,61 @@
         <v>13</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F87" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="H87" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L86" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-    </row>
-    <row r="87" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-    </row>
-    <row r="88" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+    </row>
+    <row r="88" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -5175,7 +5240,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="89" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -5189,7 +5254,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="90" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5203,7 +5268,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="91" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -5217,7 +5282,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="92" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -5231,7 +5296,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="93" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -5244,6 +5309,20 @@
       <c r="J93" s="21"/>
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
+    </row>
+    <row r="94" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L38"/>
@@ -5273,7 +5352,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
@@ -5286,7 +5365,7 @@
     <col min="12" max="12" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -5302,7 +5381,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5340,7 +5419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="37.5" customHeight="1">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -5370,7 +5449,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="81" customHeight="1">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -5400,7 +5479,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="73.5" customHeight="1">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -5430,7 +5509,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="123" customHeight="1">
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -5460,7 +5539,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="53.25" customHeight="1">
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -5490,7 +5569,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -5520,7 +5599,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" ht="41.25" customHeight="1">
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -5550,7 +5629,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -5574,7 +5653,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -5598,7 +5677,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="12" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -5641,7 +5720,7 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
@@ -5649,7 +5728,7 @@
     <col min="8" max="8" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -5665,7 +5744,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5703,7 +5782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>251</v>
       </c>
@@ -5735,7 +5814,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>252</v>
       </c>
@@ -5767,7 +5846,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>253</v>
       </c>

--- a/doc/04.Schedule/开发计划.xlsx
+++ b/doc/04.Schedule/开发计划.xlsx
@@ -17,7 +17,7 @@
     <sheet name="备份" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$75</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">备份!$A$1:$L$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">开发准备事项!$A$1:$L$12</definedName>
   </definedNames>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="307">
   <si>
     <t>编号</t>
   </si>
@@ -1228,12 +1228,20 @@
     <t>日内分时多日、波段K线成交标识</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>波段热点板块</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1820,13 +1828,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT94"/>
+  <dimension ref="A1:AT95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A67" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q74" sqref="Q74"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65:I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
     <col min="2" max="3" width="9.25" style="14" customWidth="1"/>
@@ -1842,7 +1850,7 @@
     <col min="13" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -1858,7 +1866,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1896,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="25.15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1934,7 +1942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="25.15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1970,7 +1978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="25.15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -2008,7 +2016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="25.15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -2046,7 +2054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="25.15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -2082,7 +2090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="25.15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2118,7 +2126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2156,7 +2164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="25.15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -2192,7 +2200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="25.15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -2228,7 +2236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="25.15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2264,7 +2272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="25.15" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>154</v>
       </c>
@@ -2300,7 +2308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="25.15" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -2336,7 +2344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="25.15" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -2372,7 +2380,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="27.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -2408,7 +2416,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="25.15" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2446,7 +2454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="25.15" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -2482,7 +2490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="25.15" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -2520,7 +2528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="25.15" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -2558,7 +2566,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="25.15" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
@@ -2596,7 +2604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -2634,7 +2642,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>156</v>
       </c>
@@ -2670,7 +2678,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
@@ -2706,7 +2714,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
@@ -2744,7 +2752,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
@@ -2780,7 +2788,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>72</v>
       </c>
@@ -2816,7 +2824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>76</v>
       </c>
@@ -2854,7 +2862,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
@@ -2892,7 +2900,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
@@ -2930,7 +2938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>84</v>
       </c>
@@ -2968,7 +2976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
@@ -3006,7 +3014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>86</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
@@ -3082,7 +3090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>90</v>
       </c>
@@ -3120,7 +3128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3158,7 +3166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>93</v>
       </c>
@@ -3196,7 +3204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
@@ -3234,7 +3242,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
@@ -3272,7 +3280,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>99</v>
       </c>
@@ -3310,7 +3318,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>100</v>
       </c>
@@ -3346,7 +3354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>104</v>
       </c>
@@ -3414,7 +3422,7 @@
       <c r="AS42" s="16"/>
       <c r="AT42" s="16"/>
     </row>
-    <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>107</v>
       </c>
@@ -3482,7 +3490,7 @@
       <c r="AS43" s="16"/>
       <c r="AT43" s="16"/>
     </row>
-    <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>109</v>
       </c>
@@ -3550,7 +3558,7 @@
       <c r="AS44" s="16"/>
       <c r="AT44" s="16"/>
     </row>
-    <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>111</v>
       </c>
@@ -3618,7 +3626,7 @@
       <c r="AS45" s="16"/>
       <c r="AT45" s="16"/>
     </row>
-    <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>113</v>
       </c>
@@ -3656,7 +3664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>116</v>
       </c>
@@ -3694,7 +3702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>117</v>
       </c>
@@ -3732,7 +3740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>120</v>
       </c>
@@ -3770,7 +3778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>124</v>
       </c>
@@ -3808,7 +3816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>127</v>
       </c>
@@ -3848,7 +3856,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
@@ -3888,7 +3896,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>132</v>
       </c>
@@ -3928,7 +3936,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>137</v>
       </c>
@@ -3968,7 +3976,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>144</v>
       </c>
@@ -4008,7 +4016,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>150</v>
       </c>
@@ -4048,7 +4056,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>160</v>
       </c>
@@ -4088,7 +4096,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>161</v>
       </c>
@@ -4128,7 +4136,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>162</v>
       </c>
@@ -4168,7 +4176,7 @@
       <c r="M59" s="29"/>
       <c r="N59" s="29"/>
     </row>
-    <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>163</v>
       </c>
@@ -4206,7 +4214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>189</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>190</v>
       </c>
@@ -4273,7 +4281,7 @@
         <v>42800</v>
       </c>
       <c r="J62" s="24">
-        <v>42797</v>
+        <v>42800</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>18</v>
@@ -4312,7 +4320,7 @@
       <c r="AS62" s="16"/>
       <c r="AT62" s="16"/>
     </row>
-    <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>192</v>
       </c>
@@ -4380,7 +4388,7 @@
       <c r="AS63" s="16"/>
       <c r="AT63" s="16"/>
     </row>
-    <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>193</v>
       </c>
@@ -4448,7 +4456,7 @@
       <c r="AS64" s="16"/>
       <c r="AT64" s="16"/>
     </row>
-    <row r="65" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>191</v>
       </c>
@@ -4473,9 +4481,7 @@
       <c r="H65" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="I65" s="8">
-        <v>42818</v>
-      </c>
+      <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="9" t="s">
         <v>18</v>
@@ -4514,7 +4520,7 @@
       <c r="AS65" s="16"/>
       <c r="AT65" s="16"/>
     </row>
-    <row r="66" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>194</v>
       </c>
@@ -4539,9 +4545,7 @@
       <c r="H66" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="I66" s="8">
-        <v>42822</v>
-      </c>
+      <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="9" t="s">
         <v>18</v>
@@ -4550,7 +4554,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>195</v>
       </c>
@@ -4575,9 +4579,7 @@
       <c r="H67" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="I67" s="8">
-        <v>42825</v>
-      </c>
+      <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="9" t="s">
         <v>18</v>
@@ -4586,23 +4588,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1">
       <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="B68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="G68" s="7" t="s">
         <v>304</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J68" s="21"/>
+      <c r="K68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>196</v>
       </c>
@@ -4622,7 +4638,7 @@
         <v>15</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="21"/>
@@ -4634,9 +4650,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>11</v>
@@ -4654,7 +4670,7 @@
         <v>15</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="21"/>
@@ -4666,9 +4682,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>11</v>
@@ -4686,7 +4702,7 @@
         <v>15</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="21"/>
@@ -4698,9 +4714,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A72" s="4" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>11</v>
@@ -4717,13 +4733,11 @@
       <c r="F72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I72" s="8"/>
+      <c r="G72" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="21"/>
       <c r="J72" s="21"/>
       <c r="K72" s="9" t="s">
         <v>18</v>
@@ -4732,9 +4746,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:46" ht="25.15" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>11</v>
@@ -4752,10 +4766,10 @@
         <v>15</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="21"/>
@@ -4766,9 +4780,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:46" ht="25.15" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>11</v>
@@ -4780,16 +4794,16 @@
         <v>13</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>135</v>
+        <v>15</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="21"/>
@@ -4800,9 +4814,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>11</v>
@@ -4814,18 +4828,18 @@
         <v>13</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="19" t="s">
-        <v>70</v>
+        <v>134</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I75" s="21"/>
+        <v>136</v>
+      </c>
+      <c r="I75" s="8"/>
       <c r="J75" s="21"/>
       <c r="K75" s="9" t="s">
         <v>18</v>
@@ -4834,64 +4848,64 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:46" ht="25.15" customHeight="1">
       <c r="A76" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" ht="25.15" customHeight="1">
+      <c r="A77" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="5" t="s">
+      <c r="B77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="18" t="s">
+      <c r="F77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H77" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:46" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="I77" s="22"/>
       <c r="J77" s="22"/>
@@ -4902,62 +4916,64 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:46" ht="29.25" customHeight="1">
       <c r="A78" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" ht="25.15" customHeight="1">
+      <c r="A79" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="5" t="s">
+      <c r="B79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="18" t="s">
+      <c r="F79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="18" t="s">
-        <v>89</v>
-      </c>
       <c r="H79" s="6"/>
-      <c r="I79" s="8"/>
+      <c r="I79" s="21"/>
       <c r="J79" s="21"/>
       <c r="K79" s="9" t="s">
         <v>18</v>
@@ -4966,9 +4982,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:46" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:46" ht="25.15" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>11</v>
@@ -4986,10 +5002,10 @@
         <v>15</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H80" s="6"/>
-      <c r="I80" s="23"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="21"/>
       <c r="K80" s="9" t="s">
         <v>18</v>
@@ -4998,9 +5014,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" ht="25.15" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>11</v>
@@ -5012,16 +5028,16 @@
         <v>13</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>250</v>
+      <c r="G81" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="H81" s="6"/>
-      <c r="I81" s="8"/>
+      <c r="I81" s="23"/>
       <c r="J81" s="21"/>
       <c r="K81" s="9" t="s">
         <v>18</v>
@@ -5030,9 +5046,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" ht="25.15" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>11</v>
@@ -5044,16 +5060,16 @@
         <v>13</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="H82" s="6"/>
-      <c r="I82" s="21"/>
+      <c r="I82" s="8"/>
       <c r="J82" s="21"/>
       <c r="K82" s="9" t="s">
         <v>18</v>
@@ -5062,9 +5078,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" ht="25.15" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>11</v>
@@ -5076,16 +5092,16 @@
         <v>13</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="18" t="s">
-        <v>97</v>
+      <c r="G83" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="H83" s="6"/>
-      <c r="I83" s="8"/>
+      <c r="I83" s="21"/>
       <c r="J83" s="21"/>
       <c r="K83" s="9" t="s">
         <v>18</v>
@@ -5094,9 +5110,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" ht="25.15" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>296</v>
+        <v>207</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>11</v>
@@ -5113,11 +5129,11 @@
       <c r="F84" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>289</v>
+      <c r="G84" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="H84" s="6"/>
-      <c r="I84" s="21"/>
+      <c r="I84" s="8"/>
       <c r="J84" s="21"/>
       <c r="K84" s="9" t="s">
         <v>18</v>
@@ -5126,9 +5142,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>11</v>
@@ -5146,7 +5162,7 @@
         <v>15</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="21"/>
@@ -5158,9 +5174,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>11</v>
@@ -5172,13 +5188,13 @@
         <v>13</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="21"/>
@@ -5190,57 +5206,75 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="11" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A87" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="11" customFormat="1" ht="39" customHeight="1">
+      <c r="A88" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="5" t="s">
+      <c r="B88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F88" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="H88" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L87" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-    </row>
-    <row r="88" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-    </row>
-    <row r="89" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+    </row>
+    <row r="89" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -5254,7 +5288,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -5268,7 +5302,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -5282,7 +5316,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -5296,7 +5330,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -5310,7 +5344,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
     </row>
-    <row r="94" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -5323,6 +5357,20 @@
       <c r="J94" s="21"/>
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
+    </row>
+    <row r="95" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A95" s="4"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L38"/>
@@ -5352,7 +5400,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
@@ -5365,7 +5413,7 @@
     <col min="12" max="12" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -5381,7 +5429,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5419,7 +5467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="37.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -5449,7 +5497,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="81" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -5479,7 +5527,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -5509,7 +5557,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="123" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -5539,7 +5587,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="53.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -5569,7 +5617,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -5599,7 +5647,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="41.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -5629,7 +5677,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -5653,7 +5701,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -5677,7 +5725,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -5720,7 +5768,7 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
@@ -5728,7 +5776,7 @@
     <col min="8" max="8" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -5744,7 +5792,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5782,7 +5830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>251</v>
       </c>
@@ -5814,7 +5862,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>252</v>
       </c>
@@ -5846,7 +5894,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>253</v>
       </c>

--- a/doc/04.Schedule/开发计划.xlsx
+++ b/doc/04.Schedule/开发计划.xlsx
@@ -17,7 +17,7 @@
     <sheet name="备份" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">备份!$A$1:$L$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">开发准备事项!$A$1:$L$12</definedName>
   </definedNames>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="348">
   <si>
     <t>编号</t>
   </si>
@@ -950,10 +950,6 @@
   </si>
   <si>
     <t>导入完成画面增加 总记录数/导入记录数/忽略记录数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人交易</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -973,20 +969,6 @@
     <t>1、修改国泰普通交割单数据导入模板
 2、增加红股入帐和新股入帐交割单数据的买卖判断
 3、修改忽略数据导出excel文件的文件格式为xlsx</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>编制完成</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔日短差/波段/目标 每日股票交易标识曲线图
-新需求文档</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、隔日持仓：未平仓数量
-2、当日收益：实际收益和浮动收益 </t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1108,10 +1090,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>月结</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>调整单功能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1160,10 +1138,6 @@
   <si>
     <t>基于月结数据修改现有财务核算各报表</t>
     <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人收益报表利息计算变更（累计收益新年重计）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>第三方账号清算流程（个人业绩清算/账号调动等，不计利息）</t>
@@ -1225,15 +1199,188 @@
     <t>84</t>
   </si>
   <si>
-    <t>日内分时多日、波段K线成交标识</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>波段热点板块</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>报表</t>
+    <t>1-3月份各账户和交易员的交易数据调整，主要是漏导错导数据、新股入账和利息数据。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易数据核对调整</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加新股入帐数据的处理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日委托导入</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>将交易员的委托记录（委托价格/委托数据和委托金额）导入每日委托数据表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据报表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>短差每日收益报表显示风控提示</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>日收益亏损 0.3%（黄色显示），
+亏损0.5%（红色显示）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户期初数据管理Bug修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>上月已录入期初的账户，当月无期初数据录入时，导致该账户期初数据显示有误。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户资金调拨画面修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加资金转移记录汇总显示，修改画面布局</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导入</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日委托数据导入模板修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>月结</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>交割单月结处理修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>个股明细月结中年收益错误修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员数据导入画面修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>波段交易受益人列表增加短差部门人员</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易标识</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>波段交易标识实现，适用控件及方法调查及Demo做成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据报表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员每日收益导出报表模板修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员K线交易标识画面开发</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>日K线上画出个股每日平均买卖数据标识</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘5分钟走势预测画面开发</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘预测</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证、中小板及创业板5分钟成交量和金额5分钟走势预测图开发。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易标识</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员日内分时交易标识画面开发</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>浙商信用/国泰普通</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1241,7 +1388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1416,7 +1563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1522,6 +1669,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1828,13 +1978,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT95"/>
+  <dimension ref="A1:AT106"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65:I67"/>
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
     <col min="2" max="3" width="9.25" style="14" customWidth="1"/>
@@ -1850,7 +2000,7 @@
     <col min="13" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -1866,7 +2016,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +2054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25.15" customHeight="1">
+    <row r="3" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1942,7 +2092,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="25.15" customHeight="1">
+    <row r="4" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1978,7 +2128,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25.15" customHeight="1">
+    <row r="5" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -2016,7 +2166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="25.15" customHeight="1">
+    <row r="6" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -2054,7 +2204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25.15" customHeight="1">
+    <row r="7" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -2090,7 +2240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="25.15" customHeight="1">
+    <row r="8" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2126,7 +2276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2164,7 +2314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.15" customHeight="1">
+    <row r="10" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -2200,7 +2350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25.15" customHeight="1">
+    <row r="11" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -2236,7 +2386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="25.15" customHeight="1">
+    <row r="12" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2272,7 +2422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="25.15" customHeight="1">
+    <row r="13" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>154</v>
       </c>
@@ -2308,7 +2458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="25.15" customHeight="1">
+    <row r="14" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -2344,7 +2494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="25.15" customHeight="1">
+    <row r="15" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -2380,7 +2530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="27.75" customHeight="1">
+    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -2416,7 +2566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="25.15" customHeight="1">
+    <row r="17" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2454,7 +2604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="25.15" customHeight="1">
+    <row r="18" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -2490,7 +2640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.15" customHeight="1">
+    <row r="19" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -2528,7 +2678,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="25.15" customHeight="1">
+    <row r="20" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -2566,7 +2716,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="25.15" customHeight="1">
+    <row r="21" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
@@ -2604,7 +2754,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="22" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -2642,7 +2792,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>156</v>
       </c>
@@ -2678,7 +2828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="24" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
@@ -2714,7 +2864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="25" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
@@ -2752,7 +2902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="26" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
@@ -2788,7 +2938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="27" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>72</v>
       </c>
@@ -2824,7 +2974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="28" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>76</v>
       </c>
@@ -2862,7 +3012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="29" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
@@ -2900,7 +3050,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1">
+    <row r="30" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
@@ -2938,7 +3088,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
+    <row r="31" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>84</v>
       </c>
@@ -2976,7 +3126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="32" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
@@ -3014,7 +3164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="33" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>86</v>
       </c>
@@ -3052,7 +3202,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
@@ -3090,7 +3240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1">
+    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>90</v>
       </c>
@@ -3128,7 +3278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3166,7 +3316,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1">
+    <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>93</v>
       </c>
@@ -3204,7 +3354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
@@ -3242,7 +3392,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1">
+    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
@@ -3280,7 +3430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
+    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>99</v>
       </c>
@@ -3318,7 +3468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1">
+    <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>100</v>
       </c>
@@ -3354,7 +3504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
+    <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>104</v>
       </c>
@@ -3422,7 +3572,7 @@
       <c r="AS42" s="16"/>
       <c r="AT42" s="16"/>
     </row>
-    <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1">
+    <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>107</v>
       </c>
@@ -3490,7 +3640,7 @@
       <c r="AS43" s="16"/>
       <c r="AT43" s="16"/>
     </row>
-    <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1">
+    <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>109</v>
       </c>
@@ -3558,7 +3708,7 @@
       <c r="AS44" s="16"/>
       <c r="AT44" s="16"/>
     </row>
-    <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1">
+    <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>111</v>
       </c>
@@ -3581,7 +3731,7 @@
         <v>216</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I45" s="24">
         <v>42741</v>
@@ -3626,7 +3776,7 @@
       <c r="AS45" s="16"/>
       <c r="AT45" s="16"/>
     </row>
-    <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
+    <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>113</v>
       </c>
@@ -3664,7 +3814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
+    <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>116</v>
       </c>
@@ -3702,7 +3852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
+    <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>117</v>
       </c>
@@ -3740,7 +3890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
+    <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>120</v>
       </c>
@@ -3778,7 +3928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1">
+    <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>124</v>
       </c>
@@ -3816,7 +3966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
+    <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>127</v>
       </c>
@@ -3856,7 +4006,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1">
+    <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
@@ -3896,7 +4046,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1">
+    <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>132</v>
       </c>
@@ -3936,7 +4086,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1">
+    <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>137</v>
       </c>
@@ -3976,7 +4126,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1">
+    <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>144</v>
       </c>
@@ -4016,7 +4166,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
+    <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>150</v>
       </c>
@@ -4056,7 +4206,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1">
+    <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>160</v>
       </c>
@@ -4096,7 +4246,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1">
+    <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>161</v>
       </c>
@@ -4116,10 +4266,10 @@
         <v>15</v>
       </c>
       <c r="G58" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>246</v>
       </c>
       <c r="I58" s="24">
         <v>42781</v>
@@ -4136,7 +4286,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
+    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>162</v>
       </c>
@@ -4176,7 +4326,7 @@
       <c r="M59" s="29"/>
       <c r="N59" s="29"/>
     </row>
-    <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1">
+    <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>163</v>
       </c>
@@ -4190,16 +4340,16 @@
         <v>13</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I60" s="24">
         <v>42790</v>
@@ -4214,7 +4364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1">
+    <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>189</v>
       </c>
@@ -4228,16 +4378,16 @@
         <v>13</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="I61" s="24">
         <v>42795</v>
@@ -4252,7 +4402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1">
+    <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>190</v>
       </c>
@@ -4266,16 +4416,16 @@
         <v>13</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I62" s="24">
         <v>42800</v>
@@ -4320,9 +4470,9 @@
       <c r="AS62" s="16"/>
       <c r="AT62" s="16"/>
     </row>
-    <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1">
+    <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>11</v>
@@ -4334,16 +4484,16 @@
         <v>13</v>
       </c>
       <c r="E63" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>277</v>
-      </c>
       <c r="H63" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="I63" s="24">
         <v>42804</v>
@@ -4388,9 +4538,9 @@
       <c r="AS63" s="16"/>
       <c r="AT63" s="16"/>
     </row>
-    <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
+    <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>11</v>
@@ -4402,16 +4552,16 @@
         <v>13</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I64" s="24">
         <v>42811</v>
@@ -4456,9 +4606,9 @@
       <c r="AS64" s="16"/>
       <c r="AT64" s="16"/>
     </row>
-    <row r="65" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1">
+    <row r="65" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>11</v>
@@ -4469,58 +4619,32 @@
       <c r="D65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>275</v>
+      <c r="E65" s="25" t="s">
+        <v>145</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>276</v>
+        <v>134</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
+        <v>301</v>
+      </c>
+      <c r="I65" s="24">
+        <v>42812</v>
+      </c>
+      <c r="J65" s="24">
+        <v>42812</v>
+      </c>
       <c r="K65" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N65" s="14"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="14"/>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="12"/>
-      <c r="AC65" s="12"/>
-      <c r="AD65" s="12"/>
-      <c r="AE65" s="12"/>
-      <c r="AF65" s="12"/>
-      <c r="AG65" s="12"/>
-      <c r="AH65" s="12"/>
-      <c r="AI65" s="12"/>
-      <c r="AJ65" s="12"/>
-      <c r="AK65" s="12"/>
-      <c r="AL65" s="12"/>
-      <c r="AM65" s="16"/>
-      <c r="AN65" s="16"/>
-      <c r="AO65" s="16"/>
-      <c r="AP65" s="16"/>
-      <c r="AQ65" s="16"/>
-      <c r="AR65" s="12"/>
-      <c r="AS65" s="16"/>
-      <c r="AT65" s="16"/>
-    </row>
-    <row r="66" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>194</v>
       </c>
@@ -4533,28 +4657,32 @@
       <c r="D66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>282</v>
+      <c r="E66" s="25" t="s">
+        <v>145</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>283</v>
+        <v>134</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
+        <v>303</v>
+      </c>
+      <c r="I66" s="24">
+        <v>42822</v>
+      </c>
+      <c r="J66" s="24">
+        <v>42822</v>
+      </c>
       <c r="K66" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>195</v>
       </c>
@@ -4568,508 +4696,628 @@
         <v>13</v>
       </c>
       <c r="E67" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="I67" s="36">
+        <v>42822</v>
+      </c>
+      <c r="J67" s="36"/>
+      <c r="K67" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N67" s="14"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="14"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="16"/>
+      <c r="AN67" s="16"/>
+      <c r="AO67" s="16"/>
+      <c r="AP67" s="16"/>
+      <c r="AQ67" s="16"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="16"/>
+      <c r="AT67" s="16"/>
+    </row>
+    <row r="68" spans="1:46" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="I68" s="24">
+        <v>42825</v>
+      </c>
+      <c r="J68" s="24">
+        <v>42825</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I69" s="24">
+        <v>42826</v>
+      </c>
+      <c r="J69" s="24">
+        <v>42826</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N69" s="14"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="14"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="16"/>
+      <c r="AN69" s="16"/>
+      <c r="AO69" s="16"/>
+      <c r="AP69" s="16"/>
+      <c r="AQ69" s="16"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="16"/>
+      <c r="AT69" s="16"/>
+    </row>
+    <row r="70" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I70" s="24">
+        <v>42830</v>
+      </c>
+      <c r="J70" s="24">
+        <v>42830</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I71" s="24">
+        <v>42832</v>
+      </c>
+      <c r="J71" s="24">
+        <v>42832</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="I72" s="24">
+        <v>42835</v>
+      </c>
+      <c r="J72" s="24">
+        <v>42835</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="I73" s="24">
+        <v>42837</v>
+      </c>
+      <c r="J73" s="24">
+        <v>42837</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="24">
+        <v>42843</v>
+      </c>
+      <c r="J74" s="24">
+        <v>42843</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="I75" s="24">
+        <v>42845</v>
+      </c>
+      <c r="J75" s="24">
+        <v>42845</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="24">
+        <v>42846</v>
+      </c>
+      <c r="J76" s="24">
+        <v>42846</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="I77" s="24">
+        <v>42852</v>
+      </c>
+      <c r="J77" s="24">
+        <v>42852</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I78" s="24">
+        <v>42853</v>
+      </c>
+      <c r="J78" s="24">
+        <v>42853</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="22">
+        <v>42860</v>
+      </c>
+      <c r="J79" s="22"/>
+      <c r="K79" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:46" s="11" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A69" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="5" t="s">
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A70" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A71" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="7" t="s">
+      <c r="F82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A72" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:46" ht="25.15" customHeight="1">
-      <c r="A73" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I73" s="8"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:46" ht="25.15" customHeight="1">
-      <c r="A74" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I74" s="8"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L74" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A75" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I75" s="8"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:46" ht="25.15" customHeight="1">
-      <c r="A76" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="77" spans="1:46" ht="25.15" customHeight="1">
-      <c r="A77" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="78" spans="1:46" ht="29.25" customHeight="1">
-      <c r="A78" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="79" spans="1:46" ht="25.15" customHeight="1">
-      <c r="A79" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L79" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:46" ht="25.15" customHeight="1">
-      <c r="A80" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="25.15" customHeight="1">
-      <c r="A81" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L81" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="25.15" customHeight="1">
-      <c r="A82" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="H82" s="6"/>
-      <c r="I82" s="8"/>
+      <c r="I82" s="21"/>
       <c r="J82" s="21"/>
       <c r="K82" s="9" t="s">
         <v>18</v>
@@ -5078,9 +5326,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="25.15" customHeight="1">
+    <row r="83" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>11</v>
@@ -5092,13 +5340,13 @@
         <v>13</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>95</v>
+        <v>294</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="21"/>
@@ -5110,9 +5358,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="25.15" customHeight="1">
+    <row r="84" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>11</v>
@@ -5124,16 +5372,16 @@
         <v>13</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G84" s="18" t="s">
-        <v>97</v>
+      <c r="G84" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="H84" s="6"/>
-      <c r="I84" s="8"/>
+      <c r="I84" s="21"/>
       <c r="J84" s="21"/>
       <c r="K84" s="9" t="s">
         <v>18</v>
@@ -5142,7 +5390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="85" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>296</v>
       </c>
@@ -5156,13 +5404,13 @@
         <v>13</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="21"/>
@@ -5174,9 +5422,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="86" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>11</v>
@@ -5188,16 +5436,18 @@
         <v>13</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="21"/>
+      <c r="G86" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I86" s="8"/>
       <c r="J86" s="21"/>
       <c r="K86" s="9" t="s">
         <v>18</v>
@@ -5206,9 +5456,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="87" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>11</v>
@@ -5220,16 +5470,18 @@
         <v>13</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H87" s="6"/>
-      <c r="I87" s="21"/>
+      <c r="G87" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I87" s="8"/>
       <c r="J87" s="21"/>
       <c r="K87" s="9" t="s">
         <v>18</v>
@@ -5238,9 +5490,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="11" customFormat="1" ht="39" customHeight="1">
+    <row r="88" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>11</v>
@@ -5252,125 +5504,487 @@
         <v>13</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>247</v>
+        <v>134</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>249</v>
+        <v>136</v>
       </c>
       <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
+      <c r="J88" s="21"/>
       <c r="K88" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L88" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-    </row>
-    <row r="89" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="6"/>
+    </row>
+    <row r="89" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="I89" s="21"/>
       <c r="J89" s="21"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-    </row>
-    <row r="90" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-    </row>
-    <row r="91" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-    </row>
-    <row r="92" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="7"/>
+      <c r="K89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L90" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>81</v>
+      </c>
       <c r="H92" s="6"/>
       <c r="I92" s="21"/>
       <c r="J92" s="21"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-    </row>
-    <row r="93" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="7"/>
+      <c r="K92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>89</v>
+      </c>
       <c r="H93" s="6"/>
-      <c r="I93" s="21"/>
+      <c r="I93" s="8"/>
       <c r="J93" s="21"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="9"/>
-    </row>
-    <row r="94" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="7"/>
+      <c r="K93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>91</v>
+      </c>
       <c r="H94" s="6"/>
-      <c r="I94" s="21"/>
+      <c r="I94" s="23"/>
       <c r="J94" s="21"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-    </row>
-    <row r="95" spans="1:14" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="7"/>
+      <c r="K94" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="H95" s="6"/>
-      <c r="I95" s="21"/>
+      <c r="I95" s="8"/>
       <c r="J95" s="21"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
+      <c r="K95" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H96" s="6"/>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H97" s="6"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H98" s="6"/>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+    </row>
+    <row r="101" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+    </row>
+    <row r="102" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+    </row>
+    <row r="103" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="4"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="4"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+    </row>
+    <row r="105" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="4"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+    </row>
+    <row r="106" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="4"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L38"/>
@@ -5400,7 +6014,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
@@ -5413,7 +6027,7 @@
     <col min="12" max="12" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -5429,7 +6043,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5467,7 +6081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="37.5" customHeight="1">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -5481,23 +6095,23 @@
         <v>187</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="81" customHeight="1">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -5511,23 +6125,23 @@
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="73.5" customHeight="1">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -5541,23 +6155,23 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="123" customHeight="1">
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -5571,23 +6185,23 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="53.25" customHeight="1">
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -5601,23 +6215,23 @@
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -5631,23 +6245,23 @@
         <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" ht="41.25" customHeight="1">
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -5661,23 +6275,23 @@
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -5691,7 +6305,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7"/>
@@ -5701,7 +6315,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -5715,7 +6329,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="7"/>
@@ -5725,7 +6339,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="12" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -5739,7 +6353,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="7"/>
@@ -5768,7 +6382,7 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
@@ -5776,7 +6390,7 @@
     <col min="8" max="8" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>188</v>
       </c>
@@ -5792,7 +6406,7 @@
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5830,9 +6444,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -5862,9 +6476,9 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -5894,9 +6508,9 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>

--- a/doc/04.Schedule/开发计划.xlsx
+++ b/doc/04.Schedule/开发计划.xlsx
@@ -1388,7 +1388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1563,7 +1563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1667,11 +1667,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1980,11 +1983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT106"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A64" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A77" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="Q93" sqref="Q93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
     <col min="2" max="3" width="9.25" style="14" customWidth="1"/>
@@ -2000,23 +2003,23 @@
     <col min="13" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="25.15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="25.15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -2128,7 +2131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="25.15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="25.15" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="25.15" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="25.15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="25.15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="25.15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="25.15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="25.15" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>154</v>
       </c>
@@ -2458,7 +2461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" ht="25.15" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" ht="25.15" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -2530,7 +2533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" ht="27.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="25.15" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>155</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="25.15" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="25.15" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="25.15" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="25.15" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>59</v>
       </c>
@@ -2754,7 +2757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>156</v>
       </c>
@@ -2828,7 +2831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>68</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>72</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>76</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>79</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>84</v>
       </c>
@@ -3126,7 +3129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>85</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>86</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>87</v>
       </c>
@@ -3240,7 +3243,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>90</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3316,7 +3319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>93</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>96</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>98</v>
       </c>
@@ -3430,7 +3433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>99</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>100</v>
       </c>
@@ -3504,7 +3507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>104</v>
       </c>
@@ -3572,7 +3575,7 @@
       <c r="AS42" s="16"/>
       <c r="AT42" s="16"/>
     </row>
-    <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>107</v>
       </c>
@@ -3640,7 +3643,7 @@
       <c r="AS43" s="16"/>
       <c r="AT43" s="16"/>
     </row>
-    <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>109</v>
       </c>
@@ -3708,7 +3711,7 @@
       <c r="AS44" s="16"/>
       <c r="AT44" s="16"/>
     </row>
-    <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>111</v>
       </c>
@@ -3776,7 +3779,7 @@
       <c r="AS45" s="16"/>
       <c r="AT45" s="16"/>
     </row>
-    <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>113</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>116</v>
       </c>
@@ -3852,7 +3855,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>117</v>
       </c>
@@ -3890,7 +3893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>120</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>124</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>127</v>
       </c>
@@ -4006,7 +4009,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="16"/>
     </row>
-    <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>129</v>
       </c>
@@ -4046,7 +4049,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="16"/>
     </row>
-    <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>132</v>
       </c>
@@ -4086,7 +4089,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="16"/>
     </row>
-    <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>137</v>
       </c>
@@ -4126,7 +4129,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="16"/>
     </row>
-    <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>144</v>
       </c>
@@ -4166,7 +4169,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
-    <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>150</v>
       </c>
@@ -4206,7 +4209,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
     </row>
-    <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1">
       <c r="A57" s="4" t="s">
         <v>160</v>
       </c>
@@ -4246,7 +4249,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
-    <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1">
       <c r="A58" s="4" t="s">
         <v>161</v>
       </c>
@@ -4286,7 +4289,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
       <c r="A59" s="4" t="s">
         <v>162</v>
       </c>
@@ -4326,7 +4329,7 @@
       <c r="M59" s="29"/>
       <c r="N59" s="29"/>
     </row>
-    <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1">
       <c r="A60" s="4" t="s">
         <v>163</v>
       </c>
@@ -4364,7 +4367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>189</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>190</v>
       </c>
@@ -4470,7 +4473,7 @@
       <c r="AS62" s="16"/>
       <c r="AT62" s="16"/>
     </row>
-    <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1">
       <c r="A63" s="4" t="s">
         <v>191</v>
       </c>
@@ -4538,7 +4541,7 @@
       <c r="AS63" s="16"/>
       <c r="AT63" s="16"/>
     </row>
-    <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
       <c r="A64" s="4" t="s">
         <v>192</v>
       </c>
@@ -4606,7 +4609,7 @@
       <c r="AS64" s="16"/>
       <c r="AT64" s="16"/>
     </row>
-    <row r="65" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A65" s="4" t="s">
         <v>193</v>
       </c>
@@ -4644,7 +4647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A66" s="4" t="s">
         <v>194</v>
       </c>
@@ -4682,7 +4685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>195</v>
       </c>
@@ -4707,10 +4710,10 @@
       <c r="H67" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="I67" s="36">
+      <c r="I67" s="35">
         <v>42822</v>
       </c>
-      <c r="J67" s="36"/>
+      <c r="J67" s="35"/>
       <c r="K67" s="9" t="s">
         <v>18</v>
       </c>
@@ -4748,7 +4751,7 @@
       <c r="AS67" s="16"/>
       <c r="AT67" s="16"/>
     </row>
-    <row r="68" spans="1:46" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:46" s="11" customFormat="1" ht="33.75" customHeight="1">
       <c r="A68" s="4" t="s">
         <v>196</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1">
       <c r="A69" s="4" t="s">
         <v>197</v>
       </c>
@@ -4854,7 +4857,7 @@
       <c r="AS69" s="16"/>
       <c r="AT69" s="16"/>
     </row>
-    <row r="70" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A70" s="4" t="s">
         <v>198</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:46" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:46" s="11" customFormat="1" ht="33.75" customHeight="1">
       <c r="A71" s="4" t="s">
         <v>284</v>
       </c>
@@ -4930,7 +4933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>285</v>
       </c>
@@ -4968,7 +4971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>199</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>200</v>
       </c>
@@ -5042,7 +5045,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>201</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>202</v>
       </c>
@@ -5116,7 +5119,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>242</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A78" s="4" t="s">
         <v>203</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>204</v>
       </c>
@@ -5226,7 +5229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A80" s="4" t="s">
         <v>205</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="11" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12" s="11" customFormat="1" ht="28.5" customHeight="1">
       <c r="A81" s="4" t="s">
         <v>206</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A82" s="4" t="s">
         <v>207</v>
       </c>
@@ -5313,7 +5316,7 @@
       <c r="F82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G82" s="37" t="s">
         <v>298</v>
       </c>
       <c r="H82" s="6"/>
@@ -5326,7 +5329,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A83" s="4" t="s">
         <v>290</v>
       </c>
@@ -5345,7 +5348,7 @@
       <c r="F83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="37" t="s">
         <v>294</v>
       </c>
       <c r="H83" s="6"/>
@@ -5358,7 +5361,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A84" s="4" t="s">
         <v>295</v>
       </c>
@@ -5390,7 +5393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A85" s="4" t="s">
         <v>296</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12" ht="25.15" customHeight="1">
       <c r="A86" s="4" t="s">
         <v>297</v>
       </c>
@@ -5456,7 +5459,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" ht="25.15" customHeight="1">
       <c r="A87" s="4" t="s">
         <v>331</v>
       </c>
@@ -5490,7 +5493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A88" s="4" t="s">
         <v>332</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12" ht="25.15" customHeight="1">
       <c r="A89" s="4" t="s">
         <v>333</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12" ht="25.15" customHeight="1">
       <c r="A90" s="4" t="s">
         <v>334</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12" ht="29.25" customHeight="1">
       <c r="A91" s="4" t="s">
         <v>335</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:12" ht="25.15" customHeight="1">
       <c r="A92" s="4" t="s">
         <v>336</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12" ht="25.15" customHeight="1">
       <c r="A93" s="4" t="s">
         <v>337</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12" ht="25.15" customHeight="1">
       <c r="A94" s="4" t="s">
         <v>338</v>
       </c>
@@ -5722,7 +5725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12" ht="25.15" customHeight="1">
       <c r="A95" s="4" t="s">
         <v>339</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:12" ht="25.15" customHeight="1">
       <c r="A96" s="4" t="s">
         <v>340</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:12" ht="25.15" customHeight="1">
       <c r="A97" s="4" t="s">
         <v>341</v>
       </c>
@@ -5818,7 +5821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A98" s="4" t="s">
         <v>342</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A99" s="4" t="s">
         <v>343</v>
       </c>
@@ -5882,7 +5885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A100" s="4" t="s">
         <v>344</v>
       </c>
@@ -5898,7 +5901,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A101" s="4" t="s">
         <v>345</v>
       </c>
@@ -5914,7 +5917,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A102" s="4" t="s">
         <v>346</v>
       </c>
@@ -5930,7 +5933,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -5944,7 +5947,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -5958,7 +5961,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -5972,7 +5975,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="9"/>
     </row>
-    <row r="106" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -6014,7 +6017,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
     <col min="4" max="4" width="15.25" customWidth="1"/>
@@ -6027,23 +6030,23 @@
     <col min="12" max="12" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6081,7 +6084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="37.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -6111,7 +6114,7 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="81" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -6141,7 +6144,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="73.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -6171,7 +6174,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="123" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -6201,7 +6204,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="53.25" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -6231,7 +6234,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
@@ -6261,7 +6264,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12" s="16" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="16" customFormat="1" ht="41.25" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>33</v>
       </c>
@@ -6291,7 +6294,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
@@ -6315,7 +6318,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -6339,7 +6342,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
@@ -6382,7 +6385,7 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
@@ -6390,23 +6393,23 @@
     <col min="8" max="8" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>247</v>
       </c>
@@ -6476,7 +6479,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>248</v>
       </c>
@@ -6508,7 +6511,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>249</v>
       </c>

--- a/doc/04.Schedule/开发计划.xlsx
+++ b/doc/04.Schedule/开发计划.xlsx
@@ -22,6 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">开发准备事项!$A$1:$L$12</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1670,11 +1671,11 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1984,7 +1985,7 @@
   <dimension ref="A1:AT106"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A77" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q93" sqref="Q93"/>
+      <selection activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
@@ -2004,20 +2005,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -5316,7 +5317,7 @@
       <c r="F82" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="37" t="s">
+      <c r="G82" s="36" t="s">
         <v>298</v>
       </c>
       <c r="H82" s="6"/>
@@ -5348,7 +5349,7 @@
       <c r="F83" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="37" t="s">
+      <c r="G83" s="36" t="s">
         <v>294</v>
       </c>
       <c r="H83" s="6"/>
@@ -6031,20 +6032,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6394,20 +6395,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">

--- a/doc/04.Schedule/开发计划.xlsx
+++ b/doc/04.Schedule/开发计划.xlsx
@@ -17,12 +17,11 @@
     <sheet name="备份" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">开发计划!$A$2:$L$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">备份!$A$1:$L$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">开发准备事项!$A$1:$L$12</definedName>
   </definedNames>
   <calcPr calcId="152511" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -139,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="401">
   <si>
     <t>编号</t>
   </si>
@@ -348,15 +347,6 @@
     <t>24</t>
   </si>
   <si>
-    <t>系统设置</t>
-  </si>
-  <si>
-    <t>多帐套管理</t>
-  </si>
-  <si>
-    <t>正式帐套、测试帐套</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
@@ -381,12 +371,6 @@
     <t>27</t>
   </si>
   <si>
-    <t>账号管理</t>
-  </si>
-  <si>
-    <t>人员账号使用登记</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -405,36 +389,18 @@
     <t>32</t>
   </si>
   <si>
-    <t>对帐</t>
-  </si>
-  <si>
-    <t>账号、人员、股票 固定格式报表</t>
-  </si>
-  <si>
     <t>33</t>
   </si>
   <si>
-    <t>人员、股票、账号 固定格式报表</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>权限管理</t>
-  </si>
-  <si>
-    <t>权限管理模块</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
-    <t>目标收益按指数套保相关的业绩核算</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -516,18 +482,9 @@
     <t>48</t>
   </si>
   <si>
-    <t>交易计划单管理</t>
-  </si>
-  <si>
-    <t>基础功能（录入，发起投票，及申请单关联）</t>
-  </si>
-  <si>
     <t>49</t>
   </si>
   <si>
-    <t>交易计划单/决策及收益相关报表</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
@@ -540,148 +497,136 @@
     <t>51</t>
   </si>
   <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>数据维护</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟交易记录</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加交易时间填写</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志管理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统登陆日志</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录登陆用户信息/时间/IP/MAC等</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>数据导入</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交割单导入</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改安信证券导入模板及处理</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交割单/每日交易数据核对</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加核对明细关联的交易记录画面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人-投资收益汇总查询</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改报表格式/默认剔除期末持仓为0的数据</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>数据核对</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人交易数据维护画面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限调整，交易员可查询操作账户的所有交易记录</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>数据核对的交易明细对照画面修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加每日交易记录的导入人和受益人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据核对</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据维护</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员每日交易数据编辑画面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加账户信息可编辑。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>基础管理</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>开发完成</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票信息管理功能优化</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票代码可选，市场和股票名称自动带出</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>数据维护</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟交易记录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加交易时间填写</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志管理</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统登陆日志</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录登陆用户信息/时间/IP/MAC等</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>数据导入</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交割单导入</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改安信证券导入模板及处理</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务交割单/每日交易数据核对</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加核对明细关联的交易记录画面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>报表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人-投资收益汇总查询</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改报表格式/默认剔除期末持仓为0的数据</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>数据核对</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人交易数据维护画面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限调整，交易员可查询操作账户的所有交易记录</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>数据核对的交易明细对照画面修改</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加每日交易记录的导入人和受益人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据核对</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据维护</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易员每日交易数据编辑画面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加账户信息可编辑。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础管理</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>决策股票池</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -691,11 +636,11 @@
   </si>
   <si>
     <t>申请单实际交易数据关联，准确度投票及分类显示;申请理由分类列表可选；</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>根据需求变更修改投资决策流程和准确顶设定流程处理，并完成决策操作与实际交易记录关联处理。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>投资决策流程功能上线/已有数据迁移</t>
@@ -703,7 +648,7 @@
   </si>
   <si>
     <t>处理细节完善/bug修改/已有决策数据迁移到数据库新表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>交易员委托数据维护</t>
@@ -973,10 +918,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>三方账号盈亏统计需要重新开发(与现有的数据分开来)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -991,55 +932,55 @@
   <si>
     <t>VS2015/DevExpress15.2/SQL Server2014
 Git/TortoiseGit安装配置</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>开发准备</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>配置完成</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>SQL Server2014</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1、掌握SQL Server Management Studio的常用功能
 2、掌握SQL Server语法和常用系统函数
 3、掌握简单存储过程、函数、视图的使用和创建</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1、了解IOC框架的基本概念
 2、了解Autofac的基本用法
 3、结合本项目代码了解Autofac的实际应用方法</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>了解掌握</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>本项目系统框架及开发流程</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>项目开发环境</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>C#语言</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>IOC框架（Autofac）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>DevExpress</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>重点了解熟悉以下控件的常用属性和方法：
@@ -1050,21 +991,21 @@
 5、LookUpEdit控件
 6、GridControl/GridView控件
 7、LayoutControl控件</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1、理解系统的开发框架
 2、熟悉日常开发流程事项
 3、程序目录结构/命名规则</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>VS2015中Git的使用</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>掌握Git的常用功能：克隆/提交/提取/拉取/推送</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1、掌握基本语法
@@ -1072,15 +1013,11 @@
 3、掌握Linq的基本用法
 4、了解EntityFramework6
 5、初步掌握Winform开发的基础知识</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据导入时，核对成交金额和发生金额</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>月结</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>账户持仓核对功能</t>
@@ -1096,53 +1033,33 @@
   </si>
   <si>
     <t>交割单账户月结</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1、账户资金月结（资金和收益信息）
 2、账户持仓月结（个股持仓、成本价）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>月结</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当日委托月结</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1、交易员总收益月结
 2、交易员/交易账号/个股收益和持仓明细月结</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>报表</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>开发完成</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人交易报表修改</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于月结数据修改现有个人交易各报表</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务核算报表修改</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于月结数据修改现有财务核算各报表</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方账号清算流程（个人业绩清算/账号调动等，不计利息）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>69</t>
@@ -1160,11 +1077,11 @@
     <t>各账户每月期初数据：
 1、账户资金
 2、账户个股持仓</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>账户的个股财务持仓/交割单持仓/当日委托持仓核对报表</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>1、账户财务总收益/交割单总收益/当日委托总收益核对报表
@@ -1179,18 +1096,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>分析决策表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人首页</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资人员风控信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>82</t>
   </si>
   <si>
@@ -1198,10 +1103,6 @@
   </si>
   <si>
     <t>84</t>
-  </si>
-  <si>
-    <t>波段热点板块</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1-3月份各账户和交易员的交易数据调整，主要是漏导错导数据、新股入账和利息数据。</t>
@@ -1238,7 +1139,7 @@
   </si>
   <si>
     <t>月结</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>账户期初数据管理Bug修改</t>
@@ -1258,7 +1159,7 @@
   </si>
   <si>
     <t>数据导入</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>当日委托数据导入模板修改</t>
@@ -1266,7 +1167,7 @@
   </si>
   <si>
     <t>月结</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>交割单月结处理修改</t>
@@ -1286,7 +1187,7 @@
   </si>
   <si>
     <t>交易标识</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>波段交易标识实现，适用控件及方法调查及Demo做成</t>
@@ -1294,7 +1195,7 @@
   </si>
   <si>
     <t>数据报表</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>交易员每日收益导出报表模板修改</t>
@@ -1314,7 +1215,7 @@
   </si>
   <si>
     <t>大盘预测</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>上证、中小板及创业板5分钟成交量和金额5分钟走势预测图开发。</t>
@@ -1383,6 +1284,322 @@
   <si>
     <t>浙商信用/国泰普通</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>分时图上画出买卖数据标识</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户仓位配置规划表</t>
+  </si>
+  <si>
+    <t>1、投资主体的资金持仓及收益核算
+2、个股持仓收益核算（汇总/账户/投资主体）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导入</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务交割单导入模板增加修改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>国金证券、华泰证券和海通证券</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目部署</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件部署用的签名证书制作</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件部署时使用新的签名证书（到期日期为2029/01/01），保证投资交易管理系统可以正常自动更新版本。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户仓位配置规划表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表格式修改，后台处理完善（结果查询sql语句优化）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易标识</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>分时交易标识画面优化</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>使标识画面的布局样式更加接近同花顺的样式，方便交易员使用</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日委托数据导入模板增加修改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试人员交易数据导入</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库和程序修改，交易数据导入</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改投资主体收益明细的当日委托数据处理错误</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据维护</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户仓位配置规划表修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月、5月交割单和当日委托数据核对调整</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>各账户下的个股持仓和收益核对</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日委托和交割单数据导入模板修改</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>方正证券和华泰证券</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易标识</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>分时图Y轴价格和涨跌幅坐标没有一一对应</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨跌幅计算bug修改/画面样式调整</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户收益报表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>各账户每日收益及本年度收益计算</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金团队细分策略收益报表（主升高低策略）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日收益、本年度收益及收益明细核算</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据维护</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金团队交易记录调整</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>将各小组的基金和统管账号的交易数据合并，及交易系统用户和交易账户关联变更修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统维护</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新进交易员交易管理系统安装和账号开通</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易团队成员收益报表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>团队成员收益、交易类别收益和收益明细核算</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易员每日收益导出报表模板修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新进交易员的收益模板</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>日均投入资金核算和累计收益核算修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易团队成员收益报表修改</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易团队管理画面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易策略管理画面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易模块需求分析及程序框架分析</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月份委托数据和财务交割单数据核对</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易团队细分策略收益画面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易团队成员、交易类别及明细收益画面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户仓位配置规划画面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易模块</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>核对完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据核对及调整</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易模块</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>通达信交易接口熟悉</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析完成</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
   </si>
 </sst>
 </file>
@@ -1464,13 +1681,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1491,8 +1701,16 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1564,7 +1782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1614,9 +1832,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1632,37 +1847,16 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1671,8 +1865,23 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1982,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT106"/>
+  <dimension ref="A1:AT114"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A77" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="P84" sqref="P84"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A91" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
@@ -1997,64 +2206,64 @@
     <col min="6" max="6" width="8.75" style="14" customWidth="1"/>
     <col min="7" max="7" width="39" style="15" customWidth="1"/>
     <col min="8" max="8" width="31.25" style="16" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="17" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="17" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="28" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="28" customWidth="1"/>
     <col min="11" max="11" width="11" style="14" customWidth="1"/>
     <col min="12" max="12" width="11.625" style="14" customWidth="1"/>
     <col min="13" max="16384" width="10" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="A1" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="I2" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="30" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2069,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -2077,16 +2286,16 @@
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="22">
         <v>42583</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="22">
         <v>42583</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -2119,10 +2328,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="24">
+      <c r="I4" s="22">
         <v>42593</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="22">
         <v>42593</v>
       </c>
       <c r="K4" s="9" t="s">
@@ -2157,10 +2366,10 @@
       <c r="H5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="22">
         <v>42597</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="22">
         <v>42597</v>
       </c>
       <c r="K5" s="9" t="s">
@@ -2195,10 +2404,10 @@
       <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <v>42598</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
         <v>42598</v>
       </c>
       <c r="K6" s="9" t="s">
@@ -2231,10 +2440,10 @@
         <v>30</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="24">
+      <c r="I7" s="22">
         <v>42608</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="22">
         <v>42608</v>
       </c>
       <c r="K7" s="9" t="s">
@@ -2267,10 +2476,10 @@
         <v>32</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="24">
+      <c r="I8" s="22">
         <v>42608</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="22">
         <v>42608</v>
       </c>
       <c r="K8" s="9" t="s">
@@ -2305,10 +2514,10 @@
       <c r="H9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="22">
         <v>42611</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="22">
         <v>42611</v>
       </c>
       <c r="K9" s="9" t="s">
@@ -2341,10 +2550,10 @@
         <v>38</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>42612</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="22">
         <v>42612</v>
       </c>
       <c r="K10" s="9" t="s">
@@ -2377,10 +2586,10 @@
         <v>43</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <v>42613</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="22">
         <v>42613</v>
       </c>
       <c r="K11" s="9" t="s">
@@ -2413,10 +2622,10 @@
         <v>46</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="24">
+      <c r="I12" s="22">
         <v>42625</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="22">
         <v>42625</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -2428,7 +2637,7 @@
     </row>
     <row r="13" spans="1:12" ht="25.15" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
@@ -2449,10 +2658,10 @@
         <v>48</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="24">
+      <c r="I13" s="22">
         <v>42627</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="22">
         <v>42627</v>
       </c>
       <c r="K13" s="9" t="s">
@@ -2481,14 +2690,14 @@
       <c r="F14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="17" t="s">
         <v>51</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <v>42634</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="22">
         <v>42634</v>
       </c>
       <c r="K14" s="9" t="s">
@@ -2517,14 +2726,14 @@
       <c r="F15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="24">
+      <c r="I15" s="22">
         <v>42640</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="22">
         <v>42640</v>
       </c>
       <c r="K15" s="9" t="s">
@@ -2553,14 +2762,14 @@
       <c r="F16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="G16" s="26" t="s">
         <v>55</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="24">
+      <c r="I16" s="22">
         <v>42643</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="22">
         <v>42643</v>
       </c>
       <c r="K16" s="9" t="s">
@@ -2572,7 +2781,7 @@
     </row>
     <row r="17" spans="1:12" ht="25.15" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>11</v>
@@ -2595,10 +2804,10 @@
       <c r="H17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="22">
         <v>42653</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="22">
         <v>42652</v>
       </c>
       <c r="K17" s="9" t="s">
@@ -2627,14 +2836,14 @@
       <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>60</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="24">
+      <c r="I18" s="22">
         <v>42655</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="22">
         <v>42654</v>
       </c>
       <c r="K18" s="9" t="s">
@@ -2663,16 +2872,16 @@
       <c r="F19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="26" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="22">
         <v>42661</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="22">
         <v>42661</v>
       </c>
       <c r="K19" s="9" t="s">
@@ -2696,21 +2905,21 @@
         <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="24">
+        <v>92</v>
+      </c>
+      <c r="I20" s="22">
         <v>42664</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="22">
         <v>42664</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -2734,21 +2943,21 @@
         <v>13</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="24">
+        <v>95</v>
+      </c>
+      <c r="I21" s="22">
         <v>42668</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="22">
         <v>42668</v>
       </c>
       <c r="K21" s="9" t="s">
@@ -2772,21 +2981,21 @@
         <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="24">
+        <v>95</v>
+      </c>
+      <c r="I22" s="22">
         <v>42670</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="22">
         <v>42670</v>
       </c>
       <c r="K22" s="9" t="s">
@@ -2798,7 +3007,7 @@
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>11</v>
@@ -2810,19 +3019,19 @@
         <v>13</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="24">
+      <c r="I23" s="22">
         <v>42671</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="22">
         <v>42671</v>
       </c>
       <c r="K23" s="9" t="s">
@@ -2846,19 +3055,19 @@
         <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="24">
+      <c r="I24" s="22">
         <v>42674</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="22">
         <v>42674</v>
       </c>
       <c r="K24" s="9" t="s">
@@ -2882,21 +3091,21 @@
         <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I25" s="24">
+        <v>104</v>
+      </c>
+      <c r="I25" s="22">
         <v>42677</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="22">
         <v>42677</v>
       </c>
       <c r="K25" s="9" t="s">
@@ -2920,19 +3129,19 @@
         <v>13</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="24">
+      <c r="I26" s="22">
         <v>42684</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="22">
         <v>42684</v>
       </c>
       <c r="K26" s="9" t="s">
@@ -2944,7 +3153,7 @@
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>11</v>
@@ -2956,19 +3165,19 @@
         <v>13</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="24">
+      <c r="I27" s="22">
         <v>42685</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="22">
         <v>42675</v>
       </c>
       <c r="K27" s="9" t="s">
@@ -2980,7 +3189,7 @@
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>11</v>
@@ -2998,15 +3207,15 @@
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="24">
+        <v>117</v>
+      </c>
+      <c r="I28" s="22">
         <v>42685</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="22">
         <v>42685</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -3018,7 +3227,7 @@
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>11</v>
@@ -3029,22 +3238,22 @@
       <c r="D29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>145</v>
+      <c r="E29" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="I29" s="24">
+        <v>119</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="22">
         <v>42688</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="22">
         <v>42688</v>
       </c>
       <c r="K29" s="9" t="s">
@@ -3056,7 +3265,7 @@
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" ht="26.25" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>11</v>
@@ -3067,22 +3276,22 @@
       <c r="D30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="25" t="s">
-        <v>157</v>
+      <c r="E30" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="I30" s="24">
+        <v>119</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I30" s="22">
         <v>42688</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="22">
         <v>42688</v>
       </c>
       <c r="K30" s="9" t="s">
@@ -3094,7 +3303,7 @@
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" ht="33" customHeight="1">
       <c r="A31" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>11</v>
@@ -3105,22 +3314,22 @@
       <c r="D31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>138</v>
+      <c r="E31" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="H31" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="I31" s="24">
+        <v>119</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="22">
         <v>42688</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="22">
         <v>42688</v>
       </c>
       <c r="K31" s="9" t="s">
@@ -3132,7 +3341,7 @@
     </row>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>11</v>
@@ -3144,21 +3353,21 @@
         <v>13</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="I32" s="24">
+        <v>126</v>
+      </c>
+      <c r="I32" s="22">
         <v>42689</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="22">
         <v>42689</v>
       </c>
       <c r="K32" s="9" t="s">
@@ -3170,7 +3379,7 @@
     </row>
     <row r="33" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A33" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>11</v>
@@ -3181,22 +3390,22 @@
       <c r="D33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>151</v>
+      <c r="E33" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="H33" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="I33" s="24">
+        <v>119</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="22">
         <v>42689</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="22">
         <v>42689</v>
       </c>
       <c r="K33" s="9" t="s">
@@ -3208,7 +3417,7 @@
     </row>
     <row r="34" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>11</v>
@@ -3220,21 +3429,21 @@
         <v>13</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I34" s="24">
+        <v>123</v>
+      </c>
+      <c r="I34" s="22">
         <v>42689</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="22">
         <v>42689</v>
       </c>
       <c r="K34" s="9" t="s">
@@ -3244,47 +3453,47 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:46" s="30" customFormat="1" ht="42.75" customHeight="1">
+    <row r="35" spans="1:46" s="24" customFormat="1" ht="42.75" customHeight="1">
       <c r="A35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="I35" s="32">
+      <c r="G35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" s="22">
         <v>42720</v>
       </c>
-      <c r="J35" s="32">
+      <c r="J35" s="22">
         <v>42720</v>
       </c>
-      <c r="K35" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="28" t="s">
+      <c r="K35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A36" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>11</v>
@@ -3295,22 +3504,22 @@
       <c r="D36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="25" t="s">
-        <v>170</v>
+      <c r="E36" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H36" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="I36" s="24">
+      <c r="G36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="22">
         <v>42711</v>
       </c>
-      <c r="J36" s="24">
+      <c r="J36" s="22">
         <v>42711</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -3322,7 +3531,7 @@
     </row>
     <row r="37" spans="1:46" s="11" customFormat="1" ht="32.25" customHeight="1">
       <c r="A37" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>11</v>
@@ -3333,22 +3542,22 @@
       <c r="D37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>166</v>
+      <c r="E37" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="I37" s="24">
+        <v>147</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I37" s="22">
         <v>42712</v>
       </c>
-      <c r="J37" s="24">
+      <c r="J37" s="22">
         <v>42712</v>
       </c>
       <c r="K37" s="9" t="s">
@@ -3360,7 +3569,7 @@
     </row>
     <row r="38" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>11</v>
@@ -3371,22 +3580,22 @@
       <c r="D38" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>167</v>
+      <c r="E38" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="I38" s="24">
+      <c r="G38" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I38" s="22">
         <v>42713</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="22">
         <v>42713</v>
       </c>
       <c r="K38" s="9" t="s">
@@ -3396,85 +3605,85 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:46" s="30" customFormat="1" ht="54" customHeight="1">
+    <row r="39" spans="1:46" s="24" customFormat="1" ht="54" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="I39" s="32">
+      <c r="G39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I39" s="22">
         <v>42727</v>
       </c>
-      <c r="J39" s="32">
+      <c r="J39" s="22">
         <v>42727</v>
       </c>
-      <c r="K39" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
+      <c r="K39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" s="24" customFormat="1" ht="38.25" customHeight="1">
       <c r="A40" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="I40" s="32">
+      <c r="G40" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="22">
         <v>42731</v>
       </c>
-      <c r="J40" s="32">
+      <c r="J40" s="22">
         <v>42731</v>
       </c>
-      <c r="K40" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="28" t="s">
+      <c r="K40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:46" s="11" customFormat="1" ht="23.25" customHeight="1">
       <c r="A41" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>11</v>
@@ -3486,19 +3695,19 @@
         <v>13</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="H41" s="6"/>
-      <c r="I41" s="24">
+      <c r="I41" s="22">
         <v>42738</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="22">
         <v>42738</v>
       </c>
       <c r="K41" s="9" t="s">
@@ -3510,7 +3719,7 @@
     </row>
     <row r="42" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>11</v>
@@ -3522,21 +3731,21 @@
         <v>13</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I42" s="24">
+        <v>195</v>
+      </c>
+      <c r="I42" s="22">
         <v>42739</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="22">
         <v>42739</v>
       </c>
       <c r="K42" s="9" t="s">
@@ -3578,7 +3787,7 @@
     </row>
     <row r="43" spans="1:46" s="11" customFormat="1" ht="82.5" customHeight="1">
       <c r="A43" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>11</v>
@@ -3590,21 +3799,21 @@
         <v>13</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I43" s="24">
+        <v>197</v>
+      </c>
+      <c r="I43" s="22">
         <v>42740</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="22">
         <v>42740</v>
       </c>
       <c r="K43" s="9" t="s">
@@ -3646,7 +3855,7 @@
     </row>
     <row r="44" spans="1:46" s="11" customFormat="1" ht="57.75" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>11</v>
@@ -3658,21 +3867,21 @@
         <v>13</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I44" s="24">
+        <v>198</v>
+      </c>
+      <c r="I44" s="22">
         <v>42741</v>
       </c>
-      <c r="J44" s="24">
+      <c r="J44" s="22">
         <v>42741</v>
       </c>
       <c r="K44" s="9" t="s">
@@ -3714,7 +3923,7 @@
     </row>
     <row r="45" spans="1:46" s="11" customFormat="1" ht="108.75" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>11</v>
@@ -3726,21 +3935,21 @@
         <v>13</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I45" s="24">
+        <v>226</v>
+      </c>
+      <c r="I45" s="22">
         <v>42741</v>
       </c>
-      <c r="J45" s="24">
+      <c r="J45" s="22">
         <v>42741</v>
       </c>
       <c r="K45" s="9" t="s">
@@ -3782,7 +3991,7 @@
     </row>
     <row r="46" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>11</v>
@@ -3794,21 +4003,21 @@
         <v>13</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="I46" s="24">
+        <v>163</v>
+      </c>
+      <c r="I46" s="22">
         <v>42744</v>
       </c>
-      <c r="J46" s="24">
+      <c r="J46" s="22">
         <v>42744</v>
       </c>
       <c r="K46" s="9" t="s">
@@ -3820,7 +4029,7 @@
     </row>
     <row r="47" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A47" s="4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>11</v>
@@ -3832,21 +4041,21 @@
         <v>13</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I47" s="24">
+        <v>201</v>
+      </c>
+      <c r="I47" s="22">
         <v>42745</v>
       </c>
-      <c r="J47" s="24">
+      <c r="J47" s="22">
         <v>42744</v>
       </c>
       <c r="K47" s="9" t="s">
@@ -3858,7 +4067,7 @@
     </row>
     <row r="48" spans="1:46" s="11" customFormat="1" ht="49.5" customHeight="1">
       <c r="A48" s="4" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>11</v>
@@ -3870,21 +4079,21 @@
         <v>13</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I48" s="24">
+        <v>203</v>
+      </c>
+      <c r="I48" s="22">
         <v>42746</v>
       </c>
-      <c r="J48" s="24">
+      <c r="J48" s="22">
         <v>42745</v>
       </c>
       <c r="K48" s="9" t="s">
@@ -3896,7 +4105,7 @@
     </row>
     <row r="49" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A49" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>11</v>
@@ -3908,21 +4117,21 @@
         <v>13</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I49" s="24">
+        <v>205</v>
+      </c>
+      <c r="I49" s="22">
         <v>42747</v>
       </c>
-      <c r="J49" s="24">
+      <c r="J49" s="22">
         <v>42747</v>
       </c>
       <c r="K49" s="9" t="s">
@@ -3934,7 +4143,7 @@
     </row>
     <row r="50" spans="1:46" s="11" customFormat="1" ht="60" customHeight="1">
       <c r="A50" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>11</v>
@@ -3946,21 +4155,21 @@
         <v>13</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I50" s="24">
+        <v>207</v>
+      </c>
+      <c r="I50" s="22">
         <v>42748</v>
       </c>
-      <c r="J50" s="24">
+      <c r="J50" s="22">
         <v>42748</v>
       </c>
       <c r="K50" s="9" t="s">
@@ -3972,7 +4181,7 @@
     </row>
     <row r="51" spans="1:46" s="11" customFormat="1" ht="38.25" customHeight="1">
       <c r="A51" s="4" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>11</v>
@@ -3984,21 +4193,21 @@
         <v>13</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I51" s="24">
+        <v>209</v>
+      </c>
+      <c r="I51" s="22">
         <v>42751</v>
       </c>
-      <c r="J51" s="24">
+      <c r="J51" s="22">
         <v>42751</v>
       </c>
       <c r="K51" s="9" t="s">
@@ -4012,7 +4221,7 @@
     </row>
     <row r="52" spans="1:46" s="11" customFormat="1" ht="19.5" customHeight="1">
       <c r="A52" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>11</v>
@@ -4024,21 +4233,21 @@
         <v>13</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I52" s="24">
+        <v>211</v>
+      </c>
+      <c r="I52" s="22">
         <v>42752</v>
       </c>
-      <c r="J52" s="24">
+      <c r="J52" s="22">
         <v>42752</v>
       </c>
       <c r="K52" s="9" t="s">
@@ -4052,7 +4261,7 @@
     </row>
     <row r="53" spans="1:46" s="11" customFormat="1" ht="22.5" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>11</v>
@@ -4064,21 +4273,21 @@
         <v>13</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="I53" s="24">
+        <v>166</v>
+      </c>
+      <c r="I53" s="22">
         <v>42755</v>
       </c>
-      <c r="J53" s="24">
+      <c r="J53" s="22">
         <v>42755</v>
       </c>
       <c r="K53" s="9" t="s">
@@ -4092,7 +4301,7 @@
     </row>
     <row r="54" spans="1:46" s="11" customFormat="1" ht="35.25" customHeight="1">
       <c r="A54" s="4" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>11</v>
@@ -4104,21 +4313,21 @@
         <v>13</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="I54" s="24">
+        <v>215</v>
+      </c>
+      <c r="I54" s="22">
         <v>42755</v>
       </c>
-      <c r="J54" s="24">
+      <c r="J54" s="22">
         <v>42755</v>
       </c>
       <c r="K54" s="9" t="s">
@@ -4132,7 +4341,7 @@
     </row>
     <row r="55" spans="1:46" s="11" customFormat="1" ht="59.25" customHeight="1">
       <c r="A55" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>11</v>
@@ -4144,35 +4353,35 @@
         <v>13</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="I55" s="24">
+        <v>218</v>
+      </c>
+      <c r="I55" s="22">
         <v>42773</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="22">
         <v>42773</v>
       </c>
       <c r="K55" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="M55" s="16"/>
       <c r="N55" s="16"/>
     </row>
     <row r="56" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
       <c r="A56" s="4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>11</v>
@@ -4184,21 +4393,21 @@
         <v>13</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="I56" s="24">
+        <v>222</v>
+      </c>
+      <c r="I56" s="22">
         <v>42775</v>
       </c>
-      <c r="J56" s="24">
+      <c r="J56" s="22">
         <v>42775</v>
       </c>
       <c r="K56" s="9" t="s">
@@ -4212,7 +4421,7 @@
     </row>
     <row r="57" spans="1:46" s="11" customFormat="1" ht="33" customHeight="1">
       <c r="A57" s="4" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>11</v>
@@ -4224,35 +4433,35 @@
         <v>13</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I57" s="24">
+        <v>224</v>
+      </c>
+      <c r="I57" s="22">
         <v>42775</v>
       </c>
-      <c r="J57" s="24">
+      <c r="J57" s="22">
         <v>42775</v>
       </c>
       <c r="K57" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="M57" s="16"/>
       <c r="N57" s="16"/>
     </row>
     <row r="58" spans="1:46" s="11" customFormat="1" ht="75.75" customHeight="1">
       <c r="A58" s="4" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>11</v>
@@ -4264,75 +4473,75 @@
         <v>13</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="I58" s="24">
+        <v>228</v>
+      </c>
+      <c r="I58" s="22">
         <v>42781</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J58" s="22">
         <v>42781</v>
       </c>
       <c r="K58" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="M58" s="16"/>
       <c r="N58" s="16"/>
     </row>
-    <row r="59" spans="1:46" s="30" customFormat="1" ht="38.25" customHeight="1">
+    <row r="59" spans="1:46" s="24" customFormat="1" ht="38.25" customHeight="1">
       <c r="A59" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F59" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G59" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="I59" s="32">
+      <c r="G59" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I59" s="22">
         <v>42783</v>
       </c>
-      <c r="J59" s="32">
+      <c r="J59" s="22">
         <v>42787</v>
       </c>
-      <c r="K59" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
+      <c r="K59" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
     </row>
     <row r="60" spans="1:46" s="11" customFormat="1" ht="53.25" customHeight="1">
       <c r="A60" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>11</v>
@@ -4344,21 +4553,21 @@
         <v>13</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="I60" s="24">
+        <v>263</v>
+      </c>
+      <c r="I60" s="22">
         <v>42790</v>
       </c>
-      <c r="J60" s="24">
+      <c r="J60" s="22">
         <v>42790</v>
       </c>
       <c r="K60" s="9" t="s">
@@ -4370,7 +4579,7 @@
     </row>
     <row r="61" spans="1:46" s="11" customFormat="1" ht="39.75" customHeight="1">
       <c r="A61" s="4" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>11</v>
@@ -4382,21 +4591,21 @@
         <v>13</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="I61" s="24">
+        <v>264</v>
+      </c>
+      <c r="I61" s="22">
         <v>42795</v>
       </c>
-      <c r="J61" s="24">
+      <c r="J61" s="22">
         <v>42795</v>
       </c>
       <c r="K61" s="9" t="s">
@@ -4408,7 +4617,7 @@
     </row>
     <row r="62" spans="1:46" s="11" customFormat="1" ht="57" customHeight="1">
       <c r="A62" s="4" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>11</v>
@@ -4420,21 +4629,21 @@
         <v>13</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I62" s="24">
+        <v>265</v>
+      </c>
+      <c r="I62" s="22">
         <v>42800</v>
       </c>
-      <c r="J62" s="24">
+      <c r="J62" s="22">
         <v>42800</v>
       </c>
       <c r="K62" s="9" t="s">
@@ -4476,7 +4685,7 @@
     </row>
     <row r="63" spans="1:46" s="11" customFormat="1" ht="42.75" customHeight="1">
       <c r="A63" s="4" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>11</v>
@@ -4488,21 +4697,21 @@
         <v>13</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I63" s="24">
+        <v>254</v>
+      </c>
+      <c r="I63" s="22">
         <v>42804</v>
       </c>
-      <c r="J63" s="24">
+      <c r="J63" s="22">
         <v>42804</v>
       </c>
       <c r="K63" s="9" t="s">
@@ -4544,7 +4753,7 @@
     </row>
     <row r="64" spans="1:46" s="11" customFormat="1" ht="43.5" customHeight="1">
       <c r="A64" s="4" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>11</v>
@@ -4556,21 +4765,21 @@
         <v>13</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I64" s="24">
+        <v>257</v>
+      </c>
+      <c r="I64" s="22">
         <v>42811</v>
       </c>
-      <c r="J64" s="24">
+      <c r="J64" s="22">
         <v>42811</v>
       </c>
       <c r="K64" s="9" t="s">
@@ -4612,7 +4821,7 @@
     </row>
     <row r="65" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>11</v>
@@ -4623,22 +4832,22 @@
       <c r="D65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="25" t="s">
-        <v>145</v>
+      <c r="E65" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" s="26" t="s">
-        <v>146</v>
+        <v>119</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="I65" s="24">
+        <v>273</v>
+      </c>
+      <c r="I65" s="22">
         <v>42812</v>
       </c>
-      <c r="J65" s="24">
+      <c r="J65" s="22">
         <v>42812</v>
       </c>
       <c r="K65" s="9" t="s">
@@ -4650,7 +4859,7 @@
     </row>
     <row r="66" spans="1:46" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A66" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>11</v>
@@ -4661,22 +4870,22 @@
       <c r="D66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="25" t="s">
-        <v>145</v>
+      <c r="E66" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I66" s="24">
+        <v>275</v>
+      </c>
+      <c r="I66" s="22">
         <v>42822</v>
       </c>
-      <c r="J66" s="24">
+      <c r="J66" s="22">
         <v>42822</v>
       </c>
       <c r="K66" s="9" t="s">
@@ -4688,7 +4897,7 @@
     </row>
     <row r="67" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1">
       <c r="A67" s="4" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>11</v>
@@ -4700,21 +4909,21 @@
         <v>13</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="I67" s="35">
+        <v>262</v>
+      </c>
+      <c r="I67" s="27">
         <v>42822</v>
       </c>
-      <c r="J67" s="35"/>
+      <c r="J67" s="27"/>
       <c r="K67" s="9" t="s">
         <v>18</v>
       </c>
@@ -4754,7 +4963,7 @@
     </row>
     <row r="68" spans="1:46" s="11" customFormat="1" ht="33.75" customHeight="1">
       <c r="A68" s="4" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>11</v>
@@ -4766,21 +4975,21 @@
         <v>13</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="I68" s="24">
+        <v>278</v>
+      </c>
+      <c r="I68" s="22">
         <v>42825</v>
       </c>
-      <c r="J68" s="24">
+      <c r="J68" s="22">
         <v>42825</v>
       </c>
       <c r="K68" s="9" t="s">
@@ -4792,7 +5001,7 @@
     </row>
     <row r="69" spans="1:46" s="11" customFormat="1" ht="100.5" customHeight="1">
       <c r="A69" s="4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>11</v>
@@ -4804,21 +5013,21 @@
         <v>13</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="I69" s="24">
+        <v>271</v>
+      </c>
+      <c r="I69" s="22">
         <v>42826</v>
       </c>
-      <c r="J69" s="24">
+      <c r="J69" s="22">
         <v>42826</v>
       </c>
       <c r="K69" s="9" t="s">
@@ -4860,7 +5069,7 @@
     </row>
     <row r="70" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A70" s="4" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>11</v>
@@ -4872,21 +5081,21 @@
         <v>13</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="I70" s="24">
+        <v>281</v>
+      </c>
+      <c r="I70" s="22">
         <v>42830</v>
       </c>
-      <c r="J70" s="24">
+      <c r="J70" s="22">
         <v>42830</v>
       </c>
       <c r="K70" s="9" t="s">
@@ -4898,7 +5107,7 @@
     </row>
     <row r="71" spans="1:46" s="11" customFormat="1" ht="33.75" customHeight="1">
       <c r="A71" s="4" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>11</v>
@@ -4910,21 +5119,21 @@
         <v>13</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="I71" s="24">
+        <v>283</v>
+      </c>
+      <c r="I71" s="22">
         <v>42832</v>
       </c>
-      <c r="J71" s="24">
+      <c r="J71" s="22">
         <v>42832</v>
       </c>
       <c r="K71" s="9" t="s">
@@ -4936,33 +5145,33 @@
     </row>
     <row r="72" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A72" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>313</v>
-      </c>
       <c r="H72" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I72" s="24">
+        <v>319</v>
+      </c>
+      <c r="I72" s="22">
         <v>42835</v>
       </c>
-      <c r="J72" s="24">
+      <c r="J72" s="22">
         <v>42835</v>
       </c>
       <c r="K72" s="9" t="s">
@@ -4974,7 +5183,7 @@
     </row>
     <row r="73" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A73" s="4" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>11</v>
@@ -4986,21 +5195,21 @@
         <v>13</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="I73" s="24">
+        <v>288</v>
+      </c>
+      <c r="I73" s="22">
         <v>42837</v>
       </c>
-      <c r="J73" s="24">
+      <c r="J73" s="22">
         <v>42837</v>
       </c>
       <c r="K73" s="9" t="s">
@@ -5012,7 +5221,7 @@
     </row>
     <row r="74" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A74" s="4" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>11</v>
@@ -5024,19 +5233,19 @@
         <v>13</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="H74" s="6"/>
-      <c r="I74" s="24">
+      <c r="I74" s="22">
         <v>42843</v>
       </c>
-      <c r="J74" s="24">
+      <c r="J74" s="22">
         <v>42843</v>
       </c>
       <c r="K74" s="9" t="s">
@@ -5048,7 +5257,7 @@
     </row>
     <row r="75" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A75" s="4" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>11</v>
@@ -5060,21 +5269,21 @@
         <v>13</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="I75" s="24">
+        <v>290</v>
+      </c>
+      <c r="I75" s="22">
         <v>42845</v>
       </c>
-      <c r="J75" s="24">
+      <c r="J75" s="22">
         <v>42845</v>
       </c>
       <c r="K75" s="9" t="s">
@@ -5086,7 +5295,7 @@
     </row>
     <row r="76" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A76" s="4" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>11</v>
@@ -5098,19 +5307,19 @@
         <v>13</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="H76" s="6"/>
-      <c r="I76" s="24">
+      <c r="I76" s="22">
         <v>42846</v>
       </c>
-      <c r="J76" s="24">
+      <c r="J76" s="22">
         <v>42846</v>
       </c>
       <c r="K76" s="9" t="s">
@@ -5122,7 +5331,7 @@
     </row>
     <row r="77" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A77" s="4" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>11</v>
@@ -5134,21 +5343,21 @@
         <v>13</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="I77" s="24">
+        <v>299</v>
+      </c>
+      <c r="I77" s="22">
         <v>42852</v>
       </c>
-      <c r="J77" s="24">
+      <c r="J77" s="22">
         <v>42852</v>
       </c>
       <c r="K77" s="9" t="s">
@@ -5160,7 +5369,7 @@
     </row>
     <row r="78" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A78" s="4" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>11</v>
@@ -5172,21 +5381,21 @@
         <v>13</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="I78" s="24">
+        <v>296</v>
+      </c>
+      <c r="I78" s="22">
         <v>42853</v>
       </c>
-      <c r="J78" s="24">
+      <c r="J78" s="22">
         <v>42853</v>
       </c>
       <c r="K78" s="9" t="s">
@@ -5198,7 +5407,7 @@
     </row>
     <row r="79" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A79" s="4" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>11</v>
@@ -5210,19 +5419,23 @@
         <v>13</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H79" s="6"/>
+        <v>302</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>320</v>
+      </c>
       <c r="I79" s="22">
         <v>42860</v>
       </c>
-      <c r="J79" s="22"/>
+      <c r="J79" s="22">
+        <v>42859</v>
+      </c>
       <c r="K79" s="9" t="s">
         <v>18</v>
       </c>
@@ -5230,9 +5443,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:46" s="11" customFormat="1" ht="25.5" customHeight="1">
+    <row r="80" spans="1:46" s="11" customFormat="1" ht="70.5" customHeight="1">
       <c r="A80" s="4" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>11</v>
@@ -5244,19 +5457,23 @@
         <v>13</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
+        <v>322</v>
+      </c>
+      <c r="I80" s="22">
+        <v>42865</v>
+      </c>
+      <c r="J80" s="22">
+        <v>42865</v>
+      </c>
       <c r="K80" s="9" t="s">
         <v>18</v>
       </c>
@@ -5266,7 +5483,7 @@
     </row>
     <row r="81" spans="1:12" s="11" customFormat="1" ht="28.5" customHeight="1">
       <c r="A81" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>11</v>
@@ -5278,19 +5495,23 @@
         <v>13</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
+        <v>325</v>
+      </c>
+      <c r="I81" s="22">
+        <v>42866</v>
+      </c>
+      <c r="J81" s="22">
+        <v>42866</v>
+      </c>
       <c r="K81" s="9" t="s">
         <v>18</v>
       </c>
@@ -5298,9 +5519,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="82" spans="1:12" s="11" customFormat="1" ht="69" customHeight="1">
       <c r="A82" s="4" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>11</v>
@@ -5312,17 +5533,23 @@
         <v>13</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>101</v>
+        <v>326</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="I82" s="22">
+        <v>42872</v>
+      </c>
+      <c r="J82" s="22">
+        <v>42871</v>
+      </c>
       <c r="K82" s="9" t="s">
         <v>18</v>
       </c>
@@ -5330,9 +5557,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="83" spans="1:12" s="11" customFormat="1" ht="28.5" customHeight="1">
       <c r="A83" s="4" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>11</v>
@@ -5344,17 +5571,23 @@
         <v>13</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
+        <v>330</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="I83" s="22">
+        <v>42877</v>
+      </c>
+      <c r="J83" s="22">
+        <v>42877</v>
+      </c>
       <c r="K83" s="9" t="s">
         <v>18</v>
       </c>
@@ -5362,9 +5595,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="84" spans="1:12" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A84" s="4" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>11</v>
@@ -5376,17 +5609,23 @@
         <v>13</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>101</v>
+        <v>332</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>15</v>
+        <v>348</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
+        <v>333</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="I84" s="22">
+        <v>42882</v>
+      </c>
+      <c r="J84" s="22">
+        <v>42881</v>
+      </c>
       <c r="K84" s="9" t="s">
         <v>18</v>
       </c>
@@ -5394,9 +5633,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="85" spans="1:12" s="11" customFormat="1" ht="28.5" customHeight="1">
       <c r="A85" s="4" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>11</v>
@@ -5408,17 +5647,23 @@
         <v>13</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>101</v>
+        <v>323</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
+        <v>335</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I85" s="22">
+        <v>42886</v>
+      </c>
+      <c r="J85" s="22">
+        <v>42886</v>
+      </c>
       <c r="K85" s="9" t="s">
         <v>18</v>
       </c>
@@ -5426,9 +5671,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="25.15" customHeight="1">
+    <row r="86" spans="1:12" s="11" customFormat="1" ht="28.5" customHeight="1">
       <c r="A86" s="4" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>11</v>
@@ -5440,19 +5685,23 @@
         <v>13</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>101</v>
+        <v>284</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G86" s="6" t="s">
-        <v>125</v>
+      <c r="G86" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I86" s="8"/>
-      <c r="J86" s="21"/>
+        <v>337</v>
+      </c>
+      <c r="I86" s="22">
+        <v>42888</v>
+      </c>
+      <c r="J86" s="22">
+        <v>42888</v>
+      </c>
       <c r="K86" s="9" t="s">
         <v>18</v>
       </c>
@@ -5460,9 +5709,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="25.15" customHeight="1">
+    <row r="87" spans="1:12" s="11" customFormat="1" ht="25.5" customHeight="1">
       <c r="A87" s="4" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>11</v>
@@ -5474,53 +5723,61 @@
         <v>13</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="F87" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="I87" s="22">
+        <v>42891</v>
+      </c>
+      <c r="J87" s="22">
+        <v>42891</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="11" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A88" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I87" s="8"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L87" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A88" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="G88" s="7" t="s">
-        <v>135</v>
+        <v>342</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I88" s="8"/>
-      <c r="J88" s="21"/>
+        <v>343</v>
+      </c>
+      <c r="I88" s="22">
+        <v>42895</v>
+      </c>
+      <c r="J88" s="22">
+        <v>42895</v>
+      </c>
       <c r="K88" s="9" t="s">
         <v>18</v>
       </c>
@@ -5528,9 +5785,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="25.15" customHeight="1">
+    <row r="89" spans="1:12" s="11" customFormat="1" ht="28.5" customHeight="1">
       <c r="A89" s="4" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>11</v>
@@ -5542,19 +5799,23 @@
         <v>13</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G89" s="19" t="s">
-        <v>70</v>
+      <c r="G89" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
+        <v>345</v>
+      </c>
+      <c r="I89" s="22">
+        <v>42898</v>
+      </c>
+      <c r="J89" s="22">
+        <v>42898</v>
+      </c>
       <c r="K89" s="9" t="s">
         <v>18</v>
       </c>
@@ -5562,9 +5823,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="25.15" customHeight="1">
+    <row r="90" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A90" s="4" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>11</v>
@@ -5576,19 +5837,23 @@
         <v>13</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>73</v>
+        <v>346</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>74</v>
+        <v>347</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I90" s="22"/>
-      <c r="J90" s="22"/>
+        <v>350</v>
+      </c>
+      <c r="I90" s="22">
+        <v>42900</v>
+      </c>
+      <c r="J90" s="22">
+        <v>42839</v>
+      </c>
       <c r="K90" s="9" t="s">
         <v>18</v>
       </c>
@@ -5596,9 +5861,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="29.25" customHeight="1">
+    <row r="91" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>335</v>
+        <v>307</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>11</v>
@@ -5610,19 +5875,23 @@
         <v>13</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="18" t="s">
-        <v>77</v>
+        <v>351</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I91" s="22"/>
-      <c r="J91" s="22"/>
+        <v>353</v>
+      </c>
+      <c r="I91" s="22">
+        <v>42901</v>
+      </c>
+      <c r="J91" s="22">
+        <v>42901</v>
+      </c>
       <c r="K91" s="9" t="s">
         <v>18</v>
       </c>
@@ -5632,7 +5901,7 @@
     </row>
     <row r="92" spans="1:12" ht="25.15" customHeight="1">
       <c r="A92" s="4" t="s">
-        <v>336</v>
+        <v>308</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>11</v>
@@ -5644,17 +5913,23 @@
         <v>13</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>80</v>
+        <v>354</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
+        <v>355</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="I92" s="22">
+        <v>42908</v>
+      </c>
+      <c r="J92" s="22">
+        <v>42908</v>
+      </c>
       <c r="K92" s="9" t="s">
         <v>18</v>
       </c>
@@ -5662,9 +5937,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="25.15" customHeight="1">
+    <row r="93" spans="1:12" ht="44.25" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>337</v>
+        <v>309</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>11</v>
@@ -5676,17 +5951,23 @@
         <v>13</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="H93" s="6"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="21"/>
+        <v>359</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I93" s="22">
+        <v>42909</v>
+      </c>
+      <c r="J93" s="22">
+        <v>42909</v>
+      </c>
       <c r="K93" s="9" t="s">
         <v>18</v>
       </c>
@@ -5694,9 +5975,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="25.15" customHeight="1">
+    <row r="94" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>338</v>
+        <v>310</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>11</v>
@@ -5708,17 +5989,21 @@
         <v>13</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>88</v>
+        <v>363</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>91</v>
+        <v>364</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="H94" s="6"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="21"/>
+      <c r="I94" s="22">
+        <v>42912</v>
+      </c>
+      <c r="J94" s="22">
+        <v>42912</v>
+      </c>
       <c r="K94" s="9" t="s">
         <v>18</v>
       </c>
@@ -5728,7 +6013,7 @@
     </row>
     <row r="95" spans="1:12" ht="25.15" customHeight="1">
       <c r="A95" s="4" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>11</v>
@@ -5740,17 +6025,23 @@
         <v>13</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>21</v>
+        <v>366</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H95" s="6"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="21"/>
+        <v>367</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="I95" s="22">
+        <v>42914</v>
+      </c>
+      <c r="J95" s="22">
+        <v>42914</v>
+      </c>
       <c r="K95" s="9" t="s">
         <v>18</v>
       </c>
@@ -5760,7 +6051,7 @@
     </row>
     <row r="96" spans="1:12" ht="25.15" customHeight="1">
       <c r="A96" s="4" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>11</v>
@@ -5772,17 +6063,23 @@
         <v>13</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H96" s="6"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
+        <v>371</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I96" s="22">
+        <v>42915</v>
+      </c>
+      <c r="J96" s="22">
+        <v>42915</v>
+      </c>
       <c r="K96" s="9" t="s">
         <v>18</v>
       </c>
@@ -5790,9 +6087,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="25.15" customHeight="1">
+    <row r="97" spans="1:12" ht="29.25" customHeight="1">
       <c r="A97" s="4" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>11</v>
@@ -5804,17 +6101,23 @@
         <v>13</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>21</v>
+        <v>374</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="21"/>
+        <v>377</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I97" s="22">
+        <v>42919</v>
+      </c>
+      <c r="J97" s="22">
+        <v>42919</v>
+      </c>
       <c r="K97" s="9" t="s">
         <v>18</v>
       </c>
@@ -5822,9 +6125,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="98" spans="1:12" ht="25.15" customHeight="1">
       <c r="A98" s="4" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>11</v>
@@ -5836,17 +6139,21 @@
         <v>13</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>21</v>
+        <v>358</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>15</v>
+        <v>388</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H98" s="6"/>
-      <c r="I98" s="21"/>
-      <c r="J98" s="21"/>
+        <v>381</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="I98" s="8">
+        <v>42926</v>
+      </c>
+      <c r="J98" s="8"/>
       <c r="K98" s="9" t="s">
         <v>18</v>
       </c>
@@ -5854,9 +6161,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="99" spans="1:12" ht="25.15" customHeight="1">
       <c r="A99" s="4" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>11</v>
@@ -5868,17 +6175,19 @@
         <v>13</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>267</v>
+        <v>382</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="H99" s="6"/>
-      <c r="I99" s="21"/>
-      <c r="J99" s="21"/>
+      <c r="I99" s="8">
+        <v>42927</v>
+      </c>
+      <c r="J99" s="8"/>
       <c r="K99" s="9" t="s">
         <v>18</v>
       </c>
@@ -5886,109 +6195,365 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+    <row r="100" spans="1:12" ht="25.15" customHeight="1">
       <c r="A100" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="7"/>
+        <v>316</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>379</v>
+      </c>
       <c r="H100" s="6"/>
-      <c r="I100" s="21"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
+      <c r="I100" s="8">
+        <v>42930</v>
+      </c>
+      <c r="J100" s="8"/>
+      <c r="K100" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="101" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A101" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="5"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="7"/>
+        <v>317</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>383</v>
+      </c>
       <c r="H101" s="6"/>
-      <c r="I101" s="21"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
+      <c r="I101" s="8">
+        <v>42935</v>
+      </c>
+      <c r="J101" s="8"/>
+      <c r="K101" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="102" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
       <c r="A102" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="7"/>
+        <v>318</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>384</v>
+      </c>
       <c r="H102" s="6"/>
-      <c r="I102" s="21"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
+      <c r="I102" s="8">
+        <v>42937</v>
+      </c>
+      <c r="J102" s="8"/>
+      <c r="K102" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="103" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="7"/>
+      <c r="A103" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>385</v>
+      </c>
       <c r="H103" s="6"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-    </row>
-    <row r="104" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="5"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="7"/>
+      <c r="I103" s="8">
+        <v>42942</v>
+      </c>
+      <c r="J103" s="8"/>
+      <c r="K103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L103" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="25.15" customHeight="1">
+      <c r="A104" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G104" s="17" t="s">
+        <v>380</v>
+      </c>
       <c r="H104" s="6"/>
-      <c r="I104" s="21"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-    </row>
-    <row r="105" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A105" s="4"/>
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="7"/>
+      <c r="I104" s="29">
+        <v>42947</v>
+      </c>
+      <c r="J104" s="8"/>
+      <c r="K104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="25.15" customHeight="1">
+      <c r="A105" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="H105" s="6"/>
-      <c r="I105" s="21"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="9"/>
+      <c r="I105" s="29">
+        <v>42947</v>
+      </c>
+      <c r="J105" s="8"/>
+      <c r="K105" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="106" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A106" s="4"/>
-      <c r="B106" s="5"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
+      <c r="A106" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="7"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="21"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A107" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A108" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="8"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+    </row>
+    <row r="109" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A109" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+    </row>
+    <row r="110" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A110" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+    </row>
+    <row r="111" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A111" s="4"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+    </row>
+    <row r="112" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A112" s="4"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="8"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+    </row>
+    <row r="113" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A113" s="4"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="8"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+    </row>
+    <row r="114" spans="1:12" s="11" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A114" s="4"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="8"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:L38"/>
@@ -6032,20 +6597,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="A1" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6072,11 +6637,11 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>209</v>
+      <c r="I2" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>192</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -6096,19 +6661,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>258</v>
+        <v>234</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>240</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -6129,16 +6694,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -6159,16 +6724,16 @@
         <v>13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -6189,16 +6754,16 @@
         <v>13</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -6219,16 +6784,16 @@
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -6249,16 +6814,16 @@
         <v>13</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -6279,16 +6844,16 @@
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -6309,7 +6874,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7"/>
@@ -6333,7 +6898,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="7"/>
@@ -6357,7 +6922,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="7"/>
@@ -6371,7 +6936,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6395,20 +6960,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="A1" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" s="10" customFormat="1" ht="25.15" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -6435,11 +7000,11 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>209</v>
+      <c r="I2" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>192</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>8</v>
@@ -6450,7 +7015,7 @@
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
@@ -6462,19 +7027,19 @@
         <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>74</v>
+      <c r="G3" s="17" t="s">
+        <v>71</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+        <v>72</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="9" t="s">
         <v>18</v>
       </c>
@@ -6482,7 +7047,7 @@
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>11</v>
@@ -6499,14 +7064,14 @@
       <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>77</v>
+      <c r="G4" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="9" t="s">
         <v>18</v>
       </c>
@@ -6514,7 +7079,7 @@
     </row>
     <row r="5" spans="1:12" s="16" customFormat="1" ht="25.15" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -6532,11 +7097,11 @@
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="8"/>
-      <c r="J5" s="21"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="9" t="s">
         <v>18</v>
       </c>
